--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_5_14.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_5_14.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-200550.6900807485</v>
+        <v>-202898.8389639396</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5860219.813005073</v>
+        <v>5860219.813005069</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>67.62000264575641</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -665,19 +665,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>76.965172876008</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,19 +704,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -817,13 +817,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>85.87170836083672</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>20.24586684424263</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>317.1522251151974</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,16 +950,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>6.283679164003906</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1054,13 +1054,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1069,13 +1069,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>13.28273443010483</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>78.13981344678575</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,13 +1096,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1130,19 +1130,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>289.4061480524072</v>
+        <v>136.843508106601</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -1190,16 +1190,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>35.54991649216556</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1342,13 +1342,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>223.82438355203</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1388,7 +1388,7 @@
         <v>299.2435417191563</v>
       </c>
       <c r="I11" t="n">
-        <v>59.02800318540977</v>
+        <v>59.02800318540989</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>119.5026916989981</v>
+        <v>119.5026916989982</v>
       </c>
       <c r="T11" t="n">
         <v>205.8994777944583</v>
@@ -1464,10 +1464,10 @@
         <v>135.2416622125797</v>
       </c>
       <c r="H12" t="n">
-        <v>91.93595037119255</v>
+        <v>91.93595037119258</v>
       </c>
       <c r="I12" t="n">
-        <v>17.03013564767498</v>
+        <v>17.03013564767504</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,13 +1525,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>83.85453095955666</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1582,7 +1582,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2229134700513</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>100.0928255198688</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1625,7 +1625,7 @@
         <v>299.2435417191563</v>
       </c>
       <c r="I14" t="n">
-        <v>59.02800318540986</v>
+        <v>59.02800318540977</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1701,10 +1701,10 @@
         <v>135.2416622125797</v>
       </c>
       <c r="H15" t="n">
-        <v>91.93595037119256</v>
+        <v>91.93595037119255</v>
       </c>
       <c r="I15" t="n">
-        <v>17.03013564767502</v>
+        <v>17.03013564767498</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1765,16 +1765,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>126.5377811713763</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1813,25 +1813,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>193.307572319536</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>220.4165116571834</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2229134700541</v>
+        <v>286.2229134700513</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>17.30208739558654</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1862,7 @@
         <v>299.2435417191563</v>
       </c>
       <c r="I17" t="n">
-        <v>59.02800318540986</v>
+        <v>59.02800318540989</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>119.5026916989981</v>
+        <v>119.5026916989982</v>
       </c>
       <c r="T17" t="n">
         <v>205.8994777944583</v>
@@ -1938,10 +1938,10 @@
         <v>135.2416622125797</v>
       </c>
       <c r="H18" t="n">
-        <v>91.93595037119256</v>
+        <v>91.93595037119258</v>
       </c>
       <c r="I18" t="n">
-        <v>17.03013564767502</v>
+        <v>17.03013564767504</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2002,16 +2002,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>136.5833163348087</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.2288547737337</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>193.307572319536</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>220.4165116571834</v>
@@ -2059,16 +2059,16 @@
         <v>286.2229134700513</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>34.94185040523976</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2099,7 @@
         <v>299.2435417191563</v>
       </c>
       <c r="I20" t="n">
-        <v>59.02800318540986</v>
+        <v>59.02800318540989</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>119.5026916989981</v>
+        <v>119.5026916989982</v>
       </c>
       <c r="T20" t="n">
         <v>205.8994777944583</v>
@@ -2175,10 +2175,10 @@
         <v>135.2416622125797</v>
       </c>
       <c r="H21" t="n">
-        <v>91.93595037119256</v>
+        <v>91.93595037119258</v>
       </c>
       <c r="I21" t="n">
-        <v>17.03013564767502</v>
+        <v>17.03013564767504</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.2288547737337</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>146.5602830177929</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>102.4585828702529</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>98.06186232216687</v>
+        <v>37.90060370340103</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2293,19 +2293,19 @@
         <v>220.4165116571834</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2229134700513</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>207.4514621879918</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>299.2435417191563</v>
       </c>
       <c r="I23" t="n">
-        <v>59.02800318540986</v>
+        <v>59.02800318540989</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>119.5026916989981</v>
+        <v>119.5026916989982</v>
       </c>
       <c r="T23" t="n">
         <v>205.8994777944583</v>
@@ -2412,10 +2412,10 @@
         <v>135.2416622125797</v>
       </c>
       <c r="H24" t="n">
-        <v>91.93595037119256</v>
+        <v>91.93595037119258</v>
       </c>
       <c r="I24" t="n">
-        <v>17.03013564767502</v>
+        <v>17.03013564767504</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2485,13 +2485,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.2288547737337</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>146.5602830177929</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>89.99677578212135</v>
+        <v>193.307572319536</v>
       </c>
       <c r="T25" t="n">
         <v>220.4165116571834</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2229134700513</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>180.5701110044328</v>
       </c>
     </row>
     <row r="26">
@@ -2713,16 +2713,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>51.96722420371208</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>173.6268892744755</v>
       </c>
       <c r="T28" t="n">
         <v>219.5489492761692</v>
@@ -2770,7 +2770,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2792,7 +2792,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2810,7 +2810,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2843,13 +2843,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2886,10 +2886,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2950,7 +2950,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2959,7 +2959,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2968,7 +2968,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>88.0186296332085</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>173.6268892744755</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3190,10 +3190,10 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>61.4573028241896</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3205,7 +3205,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>270.069702148647</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881769</v>
       </c>
       <c r="T35" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9951719589025</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3430,19 +3430,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E37" t="n">
-        <v>99.45882602797661</v>
+        <v>99.4588260279766</v>
       </c>
       <c r="F37" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433867</v>
       </c>
       <c r="G37" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H37" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572821</v>
       </c>
       <c r="I37" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3521,7 +3521,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3554,10 +3554,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>203.917970139621</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U38" t="n">
-        <v>250.995171958902</v>
+        <v>250.9951719589025</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3597,10 +3597,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3661,25 +3661,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C40" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D40" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E40" t="n">
-        <v>99.45882602797609</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F40" t="n">
-        <v>98.4459114043387</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G40" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H40" t="n">
-        <v>97.77987829572824</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I40" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S40" t="n">
         <v>142.7938887128493</v>
@@ -3758,7 +3758,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3791,7 +3791,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>203.917970139621</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U41" t="n">
         <v>250.995171958902</v>
@@ -3834,10 +3834,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3904,19 +3904,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E43" t="n">
-        <v>99.45882602797663</v>
+        <v>99.4588260279766</v>
       </c>
       <c r="F43" t="n">
-        <v>98.4459114043387</v>
+        <v>98.44591140433867</v>
       </c>
       <c r="G43" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404361</v>
       </c>
       <c r="H43" t="n">
-        <v>97.77987829572824</v>
+        <v>97.77987829572821</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124503</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S43" t="n">
         <v>142.7938887128493</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4141,19 +4141,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E46" t="n">
-        <v>99.45882602797663</v>
+        <v>99.4588260279766</v>
       </c>
       <c r="F46" t="n">
-        <v>98.4459114043387</v>
+        <v>98.44591140433867</v>
       </c>
       <c r="G46" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H46" t="n">
-        <v>97.77987829572824</v>
+        <v>97.77987829572821</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124557</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S46" t="n">
         <v>142.7938887128493</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>841.766221650837</v>
+        <v>1791.109440255352</v>
       </c>
       <c r="C2" t="n">
-        <v>472.8037047104253</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="D2" t="n">
-        <v>472.8037047104253</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E2" t="n">
-        <v>472.8037047104253</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F2" t="n">
-        <v>395.0611058457707</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2302.336936304455</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>2302.336936304455</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V2" t="n">
-        <v>1971.274048960885</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="W2" t="n">
-        <v>1618.50539369077</v>
+        <v>1859.412473230863</v>
       </c>
       <c r="X2" t="n">
-        <v>1618.50539369077</v>
+        <v>1859.412473230863</v>
       </c>
       <c r="Y2" t="n">
-        <v>1228.366061714959</v>
+        <v>1859.412473230863</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4416,7 +4416,7 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4431,7 +4431,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>438.7118141694738</v>
+        <v>210.7222632714563</v>
       </c>
       <c r="C4" t="n">
-        <v>351.9727148150933</v>
+        <v>210.7222632714563</v>
       </c>
       <c r="D4" t="n">
-        <v>201.8560754027576</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>438.7118141694738</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X4" t="n">
-        <v>438.7118141694738</v>
+        <v>210.7222632714563</v>
       </c>
       <c r="Y4" t="n">
-        <v>438.7118141694738</v>
+        <v>210.7222632714563</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1700.479318410388</v>
+        <v>1187.828354776384</v>
       </c>
       <c r="C5" t="n">
-        <v>1331.516801469976</v>
+        <v>818.8658378359718</v>
       </c>
       <c r="D5" t="n">
-        <v>1331.516801469976</v>
+        <v>460.6001392292213</v>
       </c>
       <c r="E5" t="n">
-        <v>945.7285488717318</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4598,19 +4598,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2443.387305656314</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>2443.387305656314</v>
+        <v>2690.801940347511</v>
       </c>
       <c r="W5" t="n">
-        <v>2090.6186503862</v>
+        <v>2338.033285077397</v>
       </c>
       <c r="X5" t="n">
-        <v>2090.6186503862</v>
+        <v>1964.567526816317</v>
       </c>
       <c r="Y5" t="n">
-        <v>1700.479318410388</v>
+        <v>1574.428194840505</v>
       </c>
     </row>
     <row r="6">
@@ -4620,67 +4620,67 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>579.9823256406182</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="C7" t="n">
-        <v>411.0461427127113</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="D7" t="n">
-        <v>260.9295033003756</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="E7" t="n">
-        <v>113.0164097179825</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="F7" t="n">
-        <v>113.0164097179825</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="G7" t="n">
-        <v>113.0164097179825</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>178.5286107449329</v>
       </c>
       <c r="I7" t="n">
         <v>99.59950625323012</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>579.9823256406182</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S7" t="n">
-        <v>579.9823256406182</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="T7" t="n">
-        <v>579.9823256406182</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="U7" t="n">
-        <v>579.9823256406182</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="V7" t="n">
-        <v>579.9823256406182</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="W7" t="n">
-        <v>579.9823256406182</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="X7" t="n">
-        <v>579.9823256406182</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="Y7" t="n">
-        <v>579.9823256406182</v>
+        <v>336.2769833124028</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4778,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>764.2362323993566</v>
+        <v>1507.652482896326</v>
       </c>
       <c r="C8" t="n">
-        <v>764.2362323993566</v>
+        <v>1507.652482896326</v>
       </c>
       <c r="D8" t="n">
-        <v>764.2362323993566</v>
+        <v>1149.386784289576</v>
       </c>
       <c r="E8" t="n">
-        <v>764.2362323993566</v>
+        <v>763.5985316913313</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T8" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="U8" t="n">
-        <v>2267.209817970484</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V8" t="n">
-        <v>2267.209817970484</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W8" t="n">
-        <v>1914.44116270037</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="X8" t="n">
-        <v>1540.97540443929</v>
+        <v>1507.652482896326</v>
       </c>
       <c r="Y8" t="n">
-        <v>1150.836072463478</v>
+        <v>1507.652482896326</v>
       </c>
     </row>
     <row r="9">
@@ -4857,34 +4857,34 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L9" t="n">
         <v>713.8062203571349</v>
@@ -4893,31 +4893,31 @@
         <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>473.4444960005476</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C10" t="n">
-        <v>304.5083130726407</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D10" t="n">
-        <v>304.5083130726407</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E10" t="n">
-        <v>268.5993065148977</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F10" t="n">
-        <v>268.5993065148977</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V10" t="n">
-        <v>473.4444960005476</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="W10" t="n">
-        <v>473.4444960005476</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="X10" t="n">
-        <v>473.4444960005476</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y10" t="n">
-        <v>473.4444960005476</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="11">
@@ -5015,10 +5015,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2397.702401960703</v>
+        <v>2397.702401960704</v>
       </c>
       <c r="C11" t="n">
-        <v>2028.739885020292</v>
+        <v>2028.739885020293</v>
       </c>
       <c r="D11" t="n">
         <v>1670.474186413542</v>
@@ -5027,46 +5027,46 @@
         <v>1284.685933815298</v>
       </c>
       <c r="F11" t="n">
-        <v>873.7000290256899</v>
+        <v>873.7000290256904</v>
       </c>
       <c r="G11" t="n">
-        <v>458.170349199944</v>
+        <v>458.1703491999442</v>
       </c>
       <c r="H11" t="n">
-        <v>155.9041454432205</v>
+        <v>155.9041454432207</v>
       </c>
       <c r="I11" t="n">
         <v>96.27989980139252</v>
       </c>
       <c r="J11" t="n">
-        <v>414.5301382692641</v>
+        <v>247.1244892489108</v>
       </c>
       <c r="K11" t="n">
-        <v>789.9289953330672</v>
+        <v>844.8439030962311</v>
       </c>
       <c r="L11" t="n">
-        <v>1583.729409718926</v>
+        <v>1638.644317482089</v>
       </c>
       <c r="M11" t="n">
-        <v>2483.591865161519</v>
+        <v>2538.506772924682</v>
       </c>
       <c r="N11" t="n">
-        <v>3383.383038364593</v>
+        <v>3438.297946127755</v>
       </c>
       <c r="O11" t="n">
-        <v>4187.842690315904</v>
+        <v>4242.757598079067</v>
       </c>
       <c r="P11" t="n">
-        <v>4518.175287427213</v>
+        <v>4583.234543101466</v>
       </c>
       <c r="Q11" t="n">
-        <v>4718.068564222578</v>
+        <v>4783.127819896831</v>
       </c>
       <c r="R11" t="n">
         <v>4813.994990069626</v>
       </c>
       <c r="S11" t="n">
-        <v>4693.285200474677</v>
+        <v>4693.285200474678</v>
       </c>
       <c r="T11" t="n">
         <v>4485.305929975225</v>
@@ -5081,10 +5081,10 @@
         <v>3547.907332261717</v>
       </c>
       <c r="X11" t="n">
-        <v>3174.441574000637</v>
+        <v>3174.441574000638</v>
       </c>
       <c r="Y11" t="n">
-        <v>2784.302242024825</v>
+        <v>2784.302242024826</v>
       </c>
     </row>
     <row r="12">
@@ -5112,28 +5112,28 @@
         <v>206.3466533558042</v>
       </c>
       <c r="H12" t="n">
-        <v>113.4820570212662</v>
+        <v>113.4820570212663</v>
       </c>
       <c r="I12" t="n">
         <v>96.27989980139252</v>
       </c>
       <c r="J12" t="n">
-        <v>292.1341819174555</v>
+        <v>167.3040569304507</v>
       </c>
       <c r="K12" t="n">
-        <v>535.0627614491673</v>
+        <v>366.8504787502424</v>
       </c>
       <c r="L12" t="n">
-        <v>849.7000922989952</v>
+        <v>681.48780960007</v>
       </c>
       <c r="M12" t="n">
-        <v>1236.223885088868</v>
+        <v>1068.011602389942</v>
       </c>
       <c r="N12" t="n">
-        <v>1647.386457452194</v>
+        <v>1479.174174753268</v>
       </c>
       <c r="O12" t="n">
-        <v>2001.300088837312</v>
+        <v>1833.087806138386</v>
       </c>
       <c r="P12" t="n">
         <v>2266.013913357491</v>
@@ -5173,10 +5173,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>710.1357632219388</v>
+        <v>391.082940881696</v>
       </c>
       <c r="C13" t="n">
-        <v>541.1995802940318</v>
+        <v>391.082940881696</v>
       </c>
       <c r="D13" t="n">
         <v>391.082940881696</v>
@@ -5200,49 +5200,49 @@
         <v>127.1906975445496</v>
       </c>
       <c r="K13" t="n">
-        <v>307.8234703720054</v>
+        <v>307.8234703720051</v>
       </c>
       <c r="L13" t="n">
-        <v>594.4976645070655</v>
+        <v>594.4976645070651</v>
       </c>
       <c r="M13" t="n">
-        <v>907.1445306290202</v>
+        <v>907.1445306290193</v>
       </c>
       <c r="N13" t="n">
-        <v>1217.791969496554</v>
+        <v>1217.791969496553</v>
       </c>
       <c r="O13" t="n">
-        <v>1488.708863521204</v>
+        <v>1488.708863521203</v>
       </c>
       <c r="P13" t="n">
-        <v>1697.004386470092</v>
+        <v>1697.004386470091</v>
       </c>
       <c r="Q13" t="n">
-        <v>1757.78232960004</v>
+        <v>1757.782329600039</v>
       </c>
       <c r="R13" t="n">
-        <v>1757.78232960004</v>
+        <v>1757.782329600039</v>
       </c>
       <c r="S13" t="n">
-        <v>1757.78232960004</v>
+        <v>1757.782329600039</v>
       </c>
       <c r="T13" t="n">
-        <v>1757.78232960004</v>
+        <v>1757.782329600039</v>
       </c>
       <c r="U13" t="n">
-        <v>1757.78232960004</v>
+        <v>1468.668275589886</v>
       </c>
       <c r="V13" t="n">
-        <v>1503.097841394153</v>
+        <v>1213.983787383999</v>
       </c>
       <c r="W13" t="n">
-        <v>1213.680671357192</v>
+        <v>924.5666173470381</v>
       </c>
       <c r="X13" t="n">
-        <v>1112.576807195709</v>
+        <v>696.5770664490208</v>
       </c>
       <c r="Y13" t="n">
-        <v>891.7842280521785</v>
+        <v>475.7844873054906</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2397.702401960704</v>
+        <v>2397.702401960703</v>
       </c>
       <c r="C14" t="n">
         <v>2028.739885020292</v>
@@ -5267,34 +5267,34 @@
         <v>873.7000290256901</v>
       </c>
       <c r="G14" t="n">
-        <v>458.1703491999442</v>
+        <v>458.1703491999439</v>
       </c>
       <c r="H14" t="n">
-        <v>155.9041454432207</v>
+        <v>155.9041454432206</v>
       </c>
       <c r="I14" t="n">
         <v>96.27989980139252</v>
       </c>
       <c r="J14" t="n">
-        <v>247.1244892489108</v>
+        <v>247.1244892489111</v>
       </c>
       <c r="K14" t="n">
-        <v>844.8439030962311</v>
+        <v>844.8439030962315</v>
       </c>
       <c r="L14" t="n">
-        <v>1638.644317482089</v>
+        <v>1638.64431748209</v>
       </c>
       <c r="M14" t="n">
-        <v>2093.488374766778</v>
+        <v>2538.506772924683</v>
       </c>
       <c r="N14" t="n">
-        <v>2993.279547969851</v>
+        <v>3438.297946127757</v>
       </c>
       <c r="O14" t="n">
-        <v>3797.739199921163</v>
+        <v>3865.765418628951</v>
       </c>
       <c r="P14" t="n">
-        <v>4446.652518122239</v>
+        <v>4514.678736830027</v>
       </c>
       <c r="Q14" t="n">
         <v>4783.127819896831</v>
@@ -5318,10 +5318,10 @@
         <v>3547.907332261717</v>
       </c>
       <c r="X14" t="n">
-        <v>3174.441574000638</v>
+        <v>3174.441574000637</v>
       </c>
       <c r="Y14" t="n">
-        <v>2784.302242024826</v>
+        <v>2784.302242024825</v>
       </c>
     </row>
     <row r="15">
@@ -5349,31 +5349,31 @@
         <v>206.3466533558042</v>
       </c>
       <c r="H15" t="n">
-        <v>113.4820570212663</v>
+        <v>113.4820570212662</v>
       </c>
       <c r="I15" t="n">
         <v>96.27989980139252</v>
       </c>
       <c r="J15" t="n">
-        <v>167.3040569304507</v>
+        <v>167.3040569304508</v>
       </c>
       <c r="K15" t="n">
-        <v>366.8504787502424</v>
+        <v>628.6710633926956</v>
       </c>
       <c r="L15" t="n">
-        <v>681.48780960007</v>
+        <v>943.3083942425235</v>
       </c>
       <c r="M15" t="n">
-        <v>1068.011602389942</v>
+        <v>1329.832187032396</v>
       </c>
       <c r="N15" t="n">
-        <v>1479.174174753268</v>
+        <v>1740.994759395722</v>
       </c>
       <c r="O15" t="n">
-        <v>1833.087806138386</v>
+        <v>2094.90839078084</v>
       </c>
       <c r="P15" t="n">
-        <v>2266.013913357491</v>
+        <v>2359.622215301019</v>
       </c>
       <c r="Q15" t="n">
         <v>2601.025413179288</v>
@@ -5410,16 +5410,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>562.2226696395455</v>
+        <v>522.1255733732692</v>
       </c>
       <c r="C16" t="n">
-        <v>393.2864867116386</v>
+        <v>394.3096327961214</v>
       </c>
       <c r="D16" t="n">
-        <v>243.1698472993029</v>
+        <v>244.1929933837856</v>
       </c>
       <c r="E16" t="n">
-        <v>243.1698472993029</v>
+        <v>96.27989980139252</v>
       </c>
       <c r="F16" t="n">
         <v>96.27989980139252</v>
@@ -5437,22 +5437,22 @@
         <v>127.1906975445496</v>
       </c>
       <c r="K16" t="n">
-        <v>307.8234703720052</v>
+        <v>307.8234703720053</v>
       </c>
       <c r="L16" t="n">
-        <v>594.4976645070651</v>
+        <v>594.4976645070653</v>
       </c>
       <c r="M16" t="n">
-        <v>907.1445306290195</v>
+        <v>907.14453062902</v>
       </c>
       <c r="N16" t="n">
         <v>1217.791969496553</v>
       </c>
       <c r="O16" t="n">
-        <v>1488.708863521203</v>
+        <v>1488.708863521204</v>
       </c>
       <c r="P16" t="n">
-        <v>1697.004386470091</v>
+        <v>1697.004386470092</v>
       </c>
       <c r="Q16" t="n">
         <v>1757.782329600039</v>
@@ -5461,25 +5461,25 @@
         <v>1757.782329600039</v>
       </c>
       <c r="S16" t="n">
-        <v>1562.522155539901</v>
+        <v>1757.782329600039</v>
       </c>
       <c r="T16" t="n">
-        <v>1339.879214472039</v>
+        <v>1757.782329600039</v>
       </c>
       <c r="U16" t="n">
-        <v>1050.765160461884</v>
+        <v>1468.668275589887</v>
       </c>
       <c r="V16" t="n">
-        <v>1050.765160461884</v>
+        <v>1213.983787384</v>
       </c>
       <c r="W16" t="n">
-        <v>761.347990424923</v>
+        <v>924.566617347039</v>
       </c>
       <c r="X16" t="n">
-        <v>743.8711344697853</v>
+        <v>924.566617347039</v>
       </c>
       <c r="Y16" t="n">
-        <v>743.8711344697853</v>
+        <v>703.7740382035089</v>
       </c>
     </row>
     <row r="17">
@@ -5489,13 +5489,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2397.702401960703</v>
+        <v>2397.702401960704</v>
       </c>
       <c r="C17" t="n">
-        <v>2028.739885020292</v>
+        <v>2028.739885020293</v>
       </c>
       <c r="D17" t="n">
-        <v>1670.474186413542</v>
+        <v>1670.474186413543</v>
       </c>
       <c r="E17" t="n">
         <v>1284.685933815298</v>
@@ -5504,37 +5504,37 @@
         <v>873.7000290256901</v>
       </c>
       <c r="G17" t="n">
-        <v>458.1703491999442</v>
+        <v>458.1703491999443</v>
       </c>
       <c r="H17" t="n">
-        <v>155.9041454432208</v>
+        <v>155.9041454432207</v>
       </c>
       <c r="I17" t="n">
         <v>96.27989980139252</v>
       </c>
       <c r="J17" t="n">
-        <v>414.5301382692638</v>
+        <v>247.1244892489108</v>
       </c>
       <c r="K17" t="n">
-        <v>789.9289953330704</v>
+        <v>844.8439030962311</v>
       </c>
       <c r="L17" t="n">
-        <v>1583.729409718929</v>
+        <v>1638.644317482089</v>
       </c>
       <c r="M17" t="n">
-        <v>2483.591865161521</v>
+        <v>2538.506772924682</v>
       </c>
       <c r="N17" t="n">
-        <v>3383.383038364595</v>
+        <v>3438.297946127755</v>
       </c>
       <c r="O17" t="n">
-        <v>4187.842690315906</v>
+        <v>4242.757598079067</v>
       </c>
       <c r="P17" t="n">
-        <v>4518.175287427214</v>
+        <v>4573.090195190375</v>
       </c>
       <c r="Q17" t="n">
-        <v>4718.068564222579</v>
+        <v>4783.127819896831</v>
       </c>
       <c r="R17" t="n">
         <v>4813.994990069626</v>
@@ -5543,22 +5543,22 @@
         <v>4693.285200474678</v>
       </c>
       <c r="T17" t="n">
-        <v>4485.305929975225</v>
+        <v>4485.305929975226</v>
       </c>
       <c r="U17" t="n">
-        <v>4231.738874875402</v>
+        <v>4231.738874875403</v>
       </c>
       <c r="V17" t="n">
-        <v>3900.675987531831</v>
+        <v>3900.675987531832</v>
       </c>
       <c r="W17" t="n">
-        <v>3547.907332261717</v>
+        <v>3547.907332261718</v>
       </c>
       <c r="X17" t="n">
-        <v>3174.441574000637</v>
+        <v>3174.441574000638</v>
       </c>
       <c r="Y17" t="n">
-        <v>2784.302242024825</v>
+        <v>2784.302242024826</v>
       </c>
     </row>
     <row r="18">
@@ -5592,25 +5592,25 @@
         <v>96.27989980139252</v>
       </c>
       <c r="J18" t="n">
-        <v>281.6722698454149</v>
+        <v>167.3040569304507</v>
       </c>
       <c r="K18" t="n">
-        <v>743.0392763076594</v>
+        <v>628.6710633926953</v>
       </c>
       <c r="L18" t="n">
-        <v>1057.676607157487</v>
+        <v>943.3083942425228</v>
       </c>
       <c r="M18" t="n">
-        <v>1444.200399947359</v>
+        <v>1329.832187032395</v>
       </c>
       <c r="N18" t="n">
-        <v>1855.362972310685</v>
+        <v>1740.994759395721</v>
       </c>
       <c r="O18" t="n">
-        <v>2209.276603695803</v>
+        <v>2094.908390780838</v>
       </c>
       <c r="P18" t="n">
-        <v>2473.990428215981</v>
+        <v>2359.622215301017</v>
       </c>
       <c r="Q18" t="n">
         <v>2601.025413179288</v>
@@ -5647,16 +5647,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>869.116695631647</v>
+        <v>264.1878339162751</v>
       </c>
       <c r="C19" t="n">
-        <v>700.18051270374</v>
+        <v>264.1878339162751</v>
       </c>
       <c r="D19" t="n">
-        <v>550.0638732914042</v>
+        <v>264.1878339162751</v>
       </c>
       <c r="E19" t="n">
-        <v>402.1507797090111</v>
+        <v>264.1878339162751</v>
       </c>
       <c r="F19" t="n">
         <v>264.1878339162751</v>
@@ -5671,16 +5671,16 @@
         <v>96.27989980139252</v>
       </c>
       <c r="J19" t="n">
-        <v>127.1906975445496</v>
+        <v>127.1906975445495</v>
       </c>
       <c r="K19" t="n">
-        <v>307.8234703720052</v>
+        <v>307.8234703720051</v>
       </c>
       <c r="L19" t="n">
-        <v>594.4976645070651</v>
+        <v>594.497664507065</v>
       </c>
       <c r="M19" t="n">
-        <v>907.1445306290195</v>
+        <v>907.1445306290194</v>
       </c>
       <c r="N19" t="n">
         <v>1217.791969496553</v>
@@ -5692,31 +5692,31 @@
         <v>1697.004386470091</v>
       </c>
       <c r="Q19" t="n">
-        <v>1757.782329600039</v>
+        <v>1757.782329600038</v>
       </c>
       <c r="R19" t="n">
-        <v>1757.782329600039</v>
+        <v>1757.782329600038</v>
       </c>
       <c r="S19" t="n">
-        <v>1562.522155539901</v>
+        <v>1757.782329600038</v>
       </c>
       <c r="T19" t="n">
-        <v>1339.879214472039</v>
+        <v>1535.139388532176</v>
       </c>
       <c r="U19" t="n">
-        <v>1050.765160461887</v>
+        <v>1246.025334522024</v>
       </c>
       <c r="V19" t="n">
-        <v>1050.765160461887</v>
+        <v>991.3408463161365</v>
       </c>
       <c r="W19" t="n">
-        <v>1050.765160461887</v>
+        <v>701.9236762791759</v>
       </c>
       <c r="X19" t="n">
-        <v>1050.765160461887</v>
+        <v>666.6288778900449</v>
       </c>
       <c r="Y19" t="n">
-        <v>1050.765160461887</v>
+        <v>445.8362987465148</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2397.702401960704</v>
+        <v>2397.702401960703</v>
       </c>
       <c r="C20" t="n">
-        <v>2028.739885020293</v>
+        <v>2028.739885020292</v>
       </c>
       <c r="D20" t="n">
-        <v>1670.474186413543</v>
+        <v>1670.474186413542</v>
       </c>
       <c r="E20" t="n">
-        <v>1284.685933815299</v>
+        <v>1284.685933815298</v>
       </c>
       <c r="F20" t="n">
-        <v>873.700029025691</v>
+        <v>873.7000290256901</v>
       </c>
       <c r="G20" t="n">
         <v>458.1703491999442</v>
@@ -5750,52 +5750,52 @@
         <v>96.27989980139252</v>
       </c>
       <c r="J20" t="n">
-        <v>414.5301382692638</v>
+        <v>247.1244892489108</v>
       </c>
       <c r="K20" t="n">
-        <v>789.9289953330704</v>
+        <v>536.4075299175543</v>
       </c>
       <c r="L20" t="n">
-        <v>1583.729409718929</v>
+        <v>1330.207944303413</v>
       </c>
       <c r="M20" t="n">
-        <v>2483.591865161521</v>
+        <v>2230.070399746005</v>
       </c>
       <c r="N20" t="n">
-        <v>3383.383038364595</v>
+        <v>3129.861572949078</v>
       </c>
       <c r="O20" t="n">
-        <v>4187.842690315906</v>
+        <v>3934.32122490039</v>
       </c>
       <c r="P20" t="n">
-        <v>4518.175287427214</v>
+        <v>4583.234543101466</v>
       </c>
       <c r="Q20" t="n">
-        <v>4718.068564222579</v>
+        <v>4783.127819896831</v>
       </c>
       <c r="R20" t="n">
         <v>4813.994990069626</v>
       </c>
       <c r="S20" t="n">
-        <v>4693.285200474678</v>
+        <v>4693.285200474677</v>
       </c>
       <c r="T20" t="n">
-        <v>4485.305929975226</v>
+        <v>4485.305929975225</v>
       </c>
       <c r="U20" t="n">
-        <v>4231.738874875403</v>
+        <v>4231.738874875402</v>
       </c>
       <c r="V20" t="n">
-        <v>3900.675987531832</v>
+        <v>3900.675987531831</v>
       </c>
       <c r="W20" t="n">
-        <v>3547.907332261718</v>
+        <v>3547.907332261717</v>
       </c>
       <c r="X20" t="n">
-        <v>3174.441574000638</v>
+        <v>3174.441574000637</v>
       </c>
       <c r="Y20" t="n">
-        <v>2784.302242024826</v>
+        <v>2784.302242024825</v>
       </c>
     </row>
     <row r="21">
@@ -5829,25 +5829,25 @@
         <v>96.27989980139252</v>
       </c>
       <c r="J21" t="n">
-        <v>167.3040569304507</v>
+        <v>281.6722698454152</v>
       </c>
       <c r="K21" t="n">
-        <v>535.0627614491688</v>
+        <v>743.0392763076597</v>
       </c>
       <c r="L21" t="n">
-        <v>849.7000922989964</v>
+        <v>1057.676607157487</v>
       </c>
       <c r="M21" t="n">
-        <v>1236.223885088868</v>
+        <v>1444.200399947359</v>
       </c>
       <c r="N21" t="n">
-        <v>1647.386457452195</v>
+        <v>1855.362972310685</v>
       </c>
       <c r="O21" t="n">
-        <v>2001.300088837312</v>
+        <v>2209.276603695803</v>
       </c>
       <c r="P21" t="n">
-        <v>2266.013913357491</v>
+        <v>2473.990428215981</v>
       </c>
       <c r="Q21" t="n">
         <v>2601.025413179288</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>562.2175669110039</v>
+        <v>663.640238194933</v>
       </c>
       <c r="C22" t="n">
-        <v>562.2175669110039</v>
+        <v>494.7040552670261</v>
       </c>
       <c r="D22" t="n">
-        <v>412.1009274986682</v>
+        <v>494.7040552670261</v>
       </c>
       <c r="E22" t="n">
-        <v>264.1878339162751</v>
+        <v>494.7040552670261</v>
       </c>
       <c r="F22" t="n">
-        <v>264.1878339162751</v>
+        <v>347.8141077691157</v>
       </c>
       <c r="G22" t="n">
-        <v>96.27989980139252</v>
+        <v>347.8141077691157</v>
       </c>
       <c r="H22" t="n">
-        <v>96.27989980139252</v>
+        <v>199.7734178521532</v>
       </c>
       <c r="I22" t="n">
         <v>96.27989980139252</v>
@@ -5914,46 +5914,46 @@
         <v>307.8234703720051</v>
       </c>
       <c r="L22" t="n">
-        <v>594.4976645070651</v>
+        <v>594.497664507065</v>
       </c>
       <c r="M22" t="n">
-        <v>907.1445306290195</v>
+        <v>907.1445306290194</v>
       </c>
       <c r="N22" t="n">
         <v>1217.791969496553</v>
       </c>
       <c r="O22" t="n">
-        <v>1488.708863521204</v>
+        <v>1488.708863521203</v>
       </c>
       <c r="P22" t="n">
         <v>1697.004386470091</v>
       </c>
       <c r="Q22" t="n">
-        <v>1757.782329600039</v>
+        <v>1757.782329600038</v>
       </c>
       <c r="R22" t="n">
-        <v>1658.729943416032</v>
+        <v>1719.498891515795</v>
       </c>
       <c r="S22" t="n">
-        <v>1658.729943416032</v>
+        <v>1719.498891515795</v>
       </c>
       <c r="T22" t="n">
-        <v>1436.08700234817</v>
+        <v>1496.855950447933</v>
       </c>
       <c r="U22" t="n">
-        <v>1436.08700234817</v>
+        <v>1207.74189643778</v>
       </c>
       <c r="V22" t="n">
-        <v>1181.402514142283</v>
+        <v>953.0574082318936</v>
       </c>
       <c r="W22" t="n">
-        <v>1181.402514142283</v>
+        <v>663.640238194933</v>
       </c>
       <c r="X22" t="n">
-        <v>953.4129632442656</v>
+        <v>663.640238194933</v>
       </c>
       <c r="Y22" t="n">
-        <v>743.8660317412435</v>
+        <v>663.640238194933</v>
       </c>
     </row>
     <row r="23">
@@ -5966,7 +5966,7 @@
         <v>2397.702401960704</v>
       </c>
       <c r="C23" t="n">
-        <v>2028.739885020292</v>
+        <v>2028.739885020293</v>
       </c>
       <c r="D23" t="n">
         <v>1670.474186413542</v>
@@ -5975,7 +5975,7 @@
         <v>1284.685933815298</v>
       </c>
       <c r="F23" t="n">
-        <v>873.7000290256901</v>
+        <v>873.7000290256902</v>
       </c>
       <c r="G23" t="n">
         <v>458.1703491999443</v>
@@ -5987,28 +5987,28 @@
         <v>96.27989980139252</v>
       </c>
       <c r="J23" t="n">
-        <v>414.5301382692638</v>
+        <v>257.2688371600022</v>
       </c>
       <c r="K23" t="n">
-        <v>691.345593671131</v>
+        <v>854.9882510073226</v>
       </c>
       <c r="L23" t="n">
-        <v>1071.661405652043</v>
+        <v>1648.788665393181</v>
       </c>
       <c r="M23" t="n">
-        <v>1954.819303318447</v>
+        <v>2548.651120835773</v>
       </c>
       <c r="N23" t="n">
-        <v>2854.61047652152</v>
+        <v>3448.442294038847</v>
       </c>
       <c r="O23" t="n">
-        <v>3659.070128472832</v>
+        <v>4252.901945990158</v>
       </c>
       <c r="P23" t="n">
-        <v>4307.983446673908</v>
+        <v>4583.234543101466</v>
       </c>
       <c r="Q23" t="n">
-        <v>4718.068564222579</v>
+        <v>4783.127819896831</v>
       </c>
       <c r="R23" t="n">
         <v>4813.994990069626</v>
@@ -6066,25 +6066,25 @@
         <v>96.27989980139252</v>
       </c>
       <c r="J24" t="n">
-        <v>292.1341819174554</v>
+        <v>167.3040569304507</v>
       </c>
       <c r="K24" t="n">
-        <v>535.0627614491688</v>
+        <v>628.6710633926953</v>
       </c>
       <c r="L24" t="n">
-        <v>849.7000922989964</v>
+        <v>943.3083942425228</v>
       </c>
       <c r="M24" t="n">
-        <v>1236.223885088868</v>
+        <v>1329.832187032395</v>
       </c>
       <c r="N24" t="n">
-        <v>1647.386457452195</v>
+        <v>1740.994759395721</v>
       </c>
       <c r="O24" t="n">
-        <v>2001.300088837312</v>
+        <v>2094.908390780838</v>
       </c>
       <c r="P24" t="n">
-        <v>2266.013913357491</v>
+        <v>2359.622215301017</v>
       </c>
       <c r="Q24" t="n">
         <v>2601.025413179288</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>559.1184713311477</v>
+        <v>96.27989980139252</v>
       </c>
       <c r="C25" t="n">
-        <v>559.1184713311477</v>
+        <v>96.27989980139252</v>
       </c>
       <c r="D25" t="n">
-        <v>559.1184713311477</v>
+        <v>96.27989980139252</v>
       </c>
       <c r="E25" t="n">
-        <v>559.1184713311477</v>
+        <v>96.27989980139252</v>
       </c>
       <c r="F25" t="n">
-        <v>412.2285238332374</v>
+        <v>96.27989980139252</v>
       </c>
       <c r="G25" t="n">
-        <v>244.320589718355</v>
+        <v>96.27989980139252</v>
       </c>
       <c r="H25" t="n">
         <v>96.27989980139252</v>
@@ -6148,13 +6148,13 @@
         <v>127.1906975445496</v>
       </c>
       <c r="K25" t="n">
-        <v>307.8234703720052</v>
+        <v>307.8234703720051</v>
       </c>
       <c r="L25" t="n">
-        <v>594.4976645070651</v>
+        <v>594.497664507065</v>
       </c>
       <c r="M25" t="n">
-        <v>907.1445306290195</v>
+        <v>907.1445306290193</v>
       </c>
       <c r="N25" t="n">
         <v>1217.791969496553</v>
@@ -6172,25 +6172,25 @@
         <v>1757.782329600039</v>
       </c>
       <c r="S25" t="n">
-        <v>1666.876495476684</v>
+        <v>1562.522155539901</v>
       </c>
       <c r="T25" t="n">
-        <v>1444.233554408822</v>
+        <v>1339.879214472039</v>
       </c>
       <c r="U25" t="n">
-        <v>1444.233554408822</v>
+        <v>1050.765160461886</v>
       </c>
       <c r="V25" t="n">
-        <v>1189.549066202935</v>
+        <v>796.0806722559994</v>
       </c>
       <c r="W25" t="n">
-        <v>1189.549066202935</v>
+        <v>506.6635022190387</v>
       </c>
       <c r="X25" t="n">
-        <v>961.5595153049176</v>
+        <v>278.6739513210216</v>
       </c>
       <c r="Y25" t="n">
-        <v>740.7669361613874</v>
+        <v>96.27989980139252</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H26" t="n">
         <v>137.5579332089257</v>
@@ -6224,19 +6224,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>1106.569146563073</v>
+        <v>818.2062848686776</v>
       </c>
       <c r="L26" t="n">
-        <v>1971.087962216427</v>
+        <v>1682.725100522032</v>
       </c>
       <c r="M26" t="n">
-        <v>2504.619866888352</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N26" t="n">
-        <v>3484.372139114998</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O26" t="n">
         <v>4075.973927750058</v>
@@ -6251,25 +6251,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="27">
@@ -6297,28 +6297,28 @@
         <v>205.0702204089889</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I27" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K27" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L27" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N27" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O27" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P27" t="n">
         <v>2436.460902902952</v>
@@ -6358,16 +6358,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>464.9024566190096</v>
+        <v>95.56103444839437</v>
       </c>
       <c r="C28" t="n">
-        <v>295.9662736911027</v>
+        <v>95.56103444839437</v>
       </c>
       <c r="D28" t="n">
-        <v>295.9662736911027</v>
+        <v>95.56103444839437</v>
       </c>
       <c r="E28" t="n">
-        <v>148.0531801087097</v>
+        <v>95.56103444839437</v>
       </c>
       <c r="F28" t="n">
         <v>95.56103444839442</v>
@@ -6382,10 +6382,10 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J28" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K28" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L28" t="n">
         <v>661.2306482927024</v>
@@ -6403,31 +6403,31 @@
         <v>1878.733169952189</v>
       </c>
       <c r="Q28" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S28" t="n">
-        <v>1674.827124689058</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T28" t="n">
-        <v>1453.060509258584</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U28" t="n">
-        <v>1163.957642384227</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V28" t="n">
-        <v>1163.957642384227</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W28" t="n">
-        <v>874.5404723472666</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X28" t="n">
-        <v>646.5509214492494</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y28" t="n">
-        <v>646.5509214492494</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="29">
@@ -6461,25 +6461,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>451.8458144277728</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K29" t="n">
-        <v>785.6651881176192</v>
+        <v>818.2062848686776</v>
       </c>
       <c r="L29" t="n">
-        <v>1236.699401366028</v>
+        <v>1682.725100522032</v>
       </c>
       <c r="M29" t="n">
-        <v>2215.249704195856</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N29" t="n">
-        <v>3195.001976422503</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O29" t="n">
-        <v>4074.966626751957</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P29" t="n">
-        <v>4469.740993109135</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q29" t="n">
         <v>4719.034655862919</v>
@@ -6500,7 +6500,7 @@
         <v>3877.189942261304</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X29" t="n">
         <v>3150.95552873011</v>
@@ -6516,37 +6516,37 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161924</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G30" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I30" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193586</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320239</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
@@ -6558,22 +6558,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P30" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q30" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R30" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S30" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T30" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V30" t="n">
         <v>1808.657265216076</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>500.2948715744222</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C31" t="n">
-        <v>331.3586886465152</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D31" t="n">
-        <v>331.3586886465152</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E31" t="n">
-        <v>331.3586886465152</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F31" t="n">
-        <v>184.468741148605</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G31" t="n">
-        <v>184.468741148605</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H31" t="n">
-        <v>184.468741148605</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I31" t="n">
         <v>95.56103444839442</v>
@@ -6622,10 +6622,10 @@
         <v>140.68366689533</v>
       </c>
       <c r="K31" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442062</v>
       </c>
       <c r="L31" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927023</v>
       </c>
       <c r="M31" t="n">
         <v>1005.387693892251</v>
@@ -6637,34 +6637,34 @@
         <v>1646.125669518529</v>
       </c>
       <c r="P31" t="n">
-        <v>1878.733169952188</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q31" t="n">
         <v>1956.343466104703</v>
       </c>
       <c r="R31" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S31" t="n">
-        <v>1674.827124689057</v>
+        <v>1780.962769867859</v>
       </c>
       <c r="T31" t="n">
-        <v>1674.827124689057</v>
+        <v>1559.196154437385</v>
       </c>
       <c r="U31" t="n">
-        <v>1674.827124689057</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V31" t="n">
-        <v>1420.14263648317</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W31" t="n">
-        <v>1130.725466446209</v>
+        <v>725.9916293201815</v>
       </c>
       <c r="X31" t="n">
-        <v>902.735915548192</v>
+        <v>498.0020784221641</v>
       </c>
       <c r="Y31" t="n">
-        <v>681.9433364046619</v>
+        <v>277.209499278634</v>
       </c>
     </row>
     <row r="32">
@@ -6689,7 +6689,7 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H32" t="n">
         <v>137.5579332089257</v>
@@ -6713,7 +6713,7 @@
         <v>2637.914081542188</v>
       </c>
       <c r="O32" t="n">
-        <v>3517.878731871643</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P32" t="n">
         <v>4195.497197679678</v>
@@ -6753,22 +6753,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089891</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H33" t="n">
         <v>114.5683260468568</v>
@@ -6777,19 +6777,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390117</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L33" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M33" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N33" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O33" t="n">
         <v>2125.96131142685</v>
@@ -6798,7 +6798,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q33" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R33" t="n">
         <v>2593.958107142068</v>
@@ -6807,22 +6807,22 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T33" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V33" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W33" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="34">
@@ -6832,46 +6832,46 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>402.8778888732398</v>
+        <v>95.56103444839439</v>
       </c>
       <c r="C34" t="n">
-        <v>402.8778888732397</v>
+        <v>95.56103444839437</v>
       </c>
       <c r="D34" t="n">
-        <v>340.7998052124422</v>
+        <v>95.56103444839437</v>
       </c>
       <c r="E34" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F34" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G34" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H34" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I34" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J34" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K34" t="n">
-        <v>344.670849844206</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L34" t="n">
-        <v>661.2306482927022</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M34" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N34" t="n">
         <v>1346.796070598116</v>
       </c>
       <c r="O34" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P34" t="n">
         <v>1878.733169952189</v>
@@ -6880,28 +6880,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R34" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S34" t="n">
-        <v>1866.513008862231</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T34" t="n">
-        <v>1866.513008862231</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U34" t="n">
-        <v>1577.410141987875</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V34" t="n">
-        <v>1322.725653781988</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W34" t="n">
-        <v>1033.308483745027</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X34" t="n">
-        <v>805.3189328470096</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y34" t="n">
-        <v>584.5263537034795</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="35">
@@ -6962,10 +6962,10 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U35" t="n">
         <v>4208.252829604874</v>
@@ -6990,25 +6990,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C36" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G36" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089893</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I36" t="n">
         <v>95.56103444839442</v>
@@ -7017,37 +7017,37 @@
         <v>189.238303939012</v>
       </c>
       <c r="K36" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193591</v>
       </c>
       <c r="L36" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320245</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N36" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O36" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P36" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q36" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R36" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S36" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T36" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U36" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V36" t="n">
         <v>1808.657265216076</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>788.5151678215053</v>
+        <v>788.5151678215054</v>
       </c>
       <c r="C37" t="n">
-        <v>667.0286178416717</v>
+        <v>667.0286178416718</v>
       </c>
       <c r="D37" t="n">
-        <v>564.3616113774093</v>
+        <v>564.3616113774094</v>
       </c>
       <c r="E37" t="n">
-        <v>463.8981507430895</v>
+        <v>463.8981507430896</v>
       </c>
       <c r="F37" t="n">
-        <v>364.4578361932524</v>
+        <v>364.4578361932525</v>
       </c>
       <c r="G37" t="n">
-        <v>244.2046325160447</v>
+        <v>244.2046325160446</v>
       </c>
       <c r="H37" t="n">
         <v>145.4370786819758</v>
@@ -7093,13 +7093,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J37" t="n">
-        <v>187.1890521477367</v>
+        <v>187.1890521477366</v>
       </c>
       <c r="K37" t="n">
-        <v>437.6816203490197</v>
+        <v>437.6816203490196</v>
       </c>
       <c r="L37" t="n">
-        <v>800.7468040499225</v>
+        <v>800.7468040499224</v>
       </c>
       <c r="M37" t="n">
         <v>1191.409234901878</v>
@@ -7114,7 +7114,7 @@
         <v>2204.270866719035</v>
       </c>
       <c r="Q37" t="n">
-        <v>2328.386548123957</v>
+        <v>2328.386548123956</v>
       </c>
       <c r="R37" t="n">
         <v>2286.005723829558</v>
@@ -7172,28 +7172,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K38" t="n">
-        <v>1106.569146563073</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L38" t="n">
-        <v>1557.603359811481</v>
+        <v>1586.925993846824</v>
       </c>
       <c r="M38" t="n">
-        <v>2091.135264483406</v>
+        <v>2120.457898518748</v>
       </c>
       <c r="N38" t="n">
-        <v>2637.914081542188</v>
+        <v>2667.236715577531</v>
       </c>
       <c r="O38" t="n">
-        <v>3482.142110232732</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P38" t="n">
-        <v>4195.497197679678</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q38" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R38" t="n">
         <v>4778.051722419721</v>
@@ -7202,7 +7202,7 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U38" t="n">
         <v>4208.252829604874</v>
@@ -7227,37 +7227,37 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G39" t="n">
-        <v>205.0702204089893</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I39" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390123</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
@@ -7293,10 +7293,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X39" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y39" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="40">
@@ -7306,16 +7306,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>788.5151678215058</v>
+        <v>788.5151678215052</v>
       </c>
       <c r="C40" t="n">
-        <v>667.0286178416721</v>
+        <v>667.0286178416716</v>
       </c>
       <c r="D40" t="n">
-        <v>564.3616113774096</v>
+        <v>564.3616113774092</v>
       </c>
       <c r="E40" t="n">
-        <v>463.8981507430895</v>
+        <v>463.8981507430894</v>
       </c>
       <c r="F40" t="n">
         <v>364.4578361932524</v>
@@ -7333,10 +7333,10 @@
         <v>187.1890521477366</v>
       </c>
       <c r="K40" t="n">
-        <v>437.6816203490197</v>
+        <v>437.6816203490196</v>
       </c>
       <c r="L40" t="n">
-        <v>800.7468040499225</v>
+        <v>800.7468040499223</v>
       </c>
       <c r="M40" t="n">
         <v>1191.409234901878</v>
@@ -7351,7 +7351,7 @@
         <v>2204.270866719035</v>
       </c>
       <c r="Q40" t="n">
-        <v>2328.386548123957</v>
+        <v>2328.386548123956</v>
       </c>
       <c r="R40" t="n">
         <v>2286.005723829558</v>
@@ -7369,13 +7369,13 @@
         <v>1518.56440093796</v>
       </c>
       <c r="W40" t="n">
-        <v>1276.596863849073</v>
+        <v>1276.596863849072</v>
       </c>
       <c r="X40" t="n">
-        <v>1096.056945899129</v>
+        <v>1096.056945899128</v>
       </c>
       <c r="Y40" t="n">
-        <v>922.7139997036722</v>
+        <v>922.7139997036716</v>
       </c>
     </row>
     <row r="41">
@@ -7388,19 +7388,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F41" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H41" t="n">
         <v>137.5579332089257</v>
@@ -7409,19 +7409,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K41" t="n">
-        <v>785.6651881176194</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L41" t="n">
-        <v>1650.184003770974</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M41" t="n">
-        <v>2432.390822294613</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N41" t="n">
-        <v>2979.169639353395</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O41" t="n">
         <v>3482.142110232732</v>
@@ -7439,16 +7439,16 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V41" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X41" t="n">
         <v>3150.95552873011</v>
@@ -7464,22 +7464,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G42" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H42" t="n">
         <v>114.5683260468565</v>
@@ -7488,13 +7488,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
@@ -7530,10 +7530,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X42" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y42" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="43">
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>788.5151678215047</v>
+        <v>788.5151678215055</v>
       </c>
       <c r="C43" t="n">
-        <v>667.0286178416711</v>
+        <v>667.0286178416719</v>
       </c>
       <c r="D43" t="n">
-        <v>564.3616113774087</v>
+        <v>564.3616113774095</v>
       </c>
       <c r="E43" t="n">
-        <v>463.898150743089</v>
+        <v>463.8981507430899</v>
       </c>
       <c r="F43" t="n">
-        <v>364.457836193252</v>
+        <v>364.4578361932528</v>
       </c>
       <c r="G43" t="n">
-        <v>244.2046325160443</v>
+        <v>244.2046325160447</v>
       </c>
       <c r="H43" t="n">
-        <v>145.4370786819753</v>
+        <v>145.4370786819758</v>
       </c>
       <c r="I43" t="n">
         <v>95.56103444839442</v>
@@ -7570,10 +7570,10 @@
         <v>187.1890521477366</v>
       </c>
       <c r="K43" t="n">
-        <v>437.6816203490195</v>
+        <v>437.6816203490196</v>
       </c>
       <c r="L43" t="n">
-        <v>800.7468040499223</v>
+        <v>800.746804049922</v>
       </c>
       <c r="M43" t="n">
         <v>1191.409234901878</v>
@@ -7600,19 +7600,19 @@
         <v>1967.452490122056</v>
       </c>
       <c r="U43" t="n">
-        <v>1725.799256195773</v>
+        <v>1725.799256195774</v>
       </c>
       <c r="V43" t="n">
-        <v>1518.564400937959</v>
+        <v>1518.56440093796</v>
       </c>
       <c r="W43" t="n">
-        <v>1276.596863849072</v>
+        <v>1276.596863849073</v>
       </c>
       <c r="X43" t="n">
-        <v>1096.056945899128</v>
+        <v>1096.056945899129</v>
       </c>
       <c r="Y43" t="n">
-        <v>922.7139997036711</v>
+        <v>922.713999703672</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551625</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G44" t="n">
         <v>435.1415336001585</v>
@@ -7652,22 +7652,22 @@
         <v>1106.569146563072</v>
       </c>
       <c r="L44" t="n">
-        <v>1557.603359811481</v>
+        <v>1586.925993846824</v>
       </c>
       <c r="M44" t="n">
-        <v>2091.135264483405</v>
+        <v>2120.457898518748</v>
       </c>
       <c r="N44" t="n">
-        <v>2637.914081542187</v>
+        <v>2667.236715577531</v>
       </c>
       <c r="O44" t="n">
-        <v>3482.142110232732</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P44" t="n">
-        <v>4195.497197679678</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q44" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R44" t="n">
         <v>4778.051722419721</v>
@@ -7679,19 +7679,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="45">
@@ -7725,28 +7725,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390123</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320247</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M45" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O45" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P45" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q45" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R45" t="n">
         <v>2593.958107142068</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>788.515167821505</v>
+        <v>788.5151678215052</v>
       </c>
       <c r="C46" t="n">
-        <v>667.0286178416713</v>
+        <v>667.0286178416716</v>
       </c>
       <c r="D46" t="n">
-        <v>564.361611377409</v>
+        <v>564.3616113774092</v>
       </c>
       <c r="E46" t="n">
-        <v>463.8981507430891</v>
+        <v>463.8981507430894</v>
       </c>
       <c r="F46" t="n">
-        <v>364.457836193252</v>
+        <v>364.4578361932524</v>
       </c>
       <c r="G46" t="n">
-        <v>244.2046325160443</v>
+        <v>244.2046325160447</v>
       </c>
       <c r="H46" t="n">
         <v>145.4370786819758</v>
@@ -7810,7 +7810,7 @@
         <v>437.6816203490196</v>
       </c>
       <c r="L46" t="n">
-        <v>800.7468040499223</v>
+        <v>800.7468040499222</v>
       </c>
       <c r="M46" t="n">
         <v>1191.409234901878</v>
@@ -7828,13 +7828,13 @@
         <v>2328.386548123956</v>
       </c>
       <c r="R46" t="n">
-        <v>2286.005723829557</v>
+        <v>2286.005723829558</v>
       </c>
       <c r="S46" t="n">
         <v>2141.769472604457</v>
       </c>
       <c r="T46" t="n">
-        <v>1967.452490122056</v>
+        <v>1967.452490122057</v>
       </c>
       <c r="U46" t="n">
         <v>1725.799256195773</v>
@@ -7849,7 +7849,7 @@
         <v>1096.056945899128</v>
       </c>
       <c r="Y46" t="n">
-        <v>922.7139997036713</v>
+        <v>922.7139997036716</v>
       </c>
     </row>
   </sheetData>
@@ -8064,7 +8064,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>346.2692436516221</v>
+        <v>346.2692436516223</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8222,7 +8222,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N5" t="n">
         <v>437.3469244119842</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8307,13 +8307,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>274.4264991783522</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8541,7 +8541,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>435.923890002883</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8687,10 +8687,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>99.57919359791475</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
@@ -8705,13 +8705,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>10.24681607180889</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8766,10 +8766,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>43.82036132517152</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8784,13 +8784,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>169.9113966655825</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>15.18012378356332</v>
+        <v>15.1801237835634</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8933,19 +8933,19 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>137.9616413931595</v>
+        <v>69.24828916306959</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -9006,7 +9006,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9021,13 +9021,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>169.9113966655822</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>115.5234473888512</v>
       </c>
       <c r="R15" t="n">
-        <v>15.1801237835634</v>
+        <v>15.18012378356332</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9161,10 +9161,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>99.5791935979185</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
@@ -9182,10 +9182,10 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>10.24681607180952</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9240,7 +9240,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>115.5234473888527</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9261,7 +9261,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>115.5234473888533</v>
       </c>
       <c r="R18" t="n">
         <v>15.1801237835634</v>
@@ -9398,10 +9398,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>99.5791935979185</v>
+        <v>12.59352047149122</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
@@ -9416,13 +9416,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,10 +9477,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>115.5234473888531</v>
       </c>
       <c r="K21" t="n">
-        <v>169.9113966655822</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9498,7 +9498,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>15.1801237835634</v>
@@ -9635,16 +9635,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>10.2468160718096</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>432.6402428098135</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
@@ -9653,13 +9653,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,10 +9714,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>43.82036132517337</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9735,7 +9735,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>115.5234473888533</v>
       </c>
       <c r="R24" t="n">
         <v>15.1801237835634</v>
@@ -9872,10 +9872,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>201.9664098701124</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
@@ -9887,7 +9887,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>89.5245633896194</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -10109,16 +10109,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>201.9664098701124</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10130,7 +10130,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.017475755658154</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10361,10 +10361,10 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P32" t="n">
-        <v>285.7011105564207</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
         <v>212.3149906599047</v>
@@ -10826,7 +10826,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>29.61882225792226</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -10835,7 +10835,7 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>344.7025836476838</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11060,19 +11060,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>251.1867816683982</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>344.7025836476853</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11300,7 +11300,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>29.61882225792226</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11309,7 +11309,7 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>344.7025836476853</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11397,7 +11397,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,13 +23413,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>95.97744922238064</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>146.5602830177929</v>
       </c>
       <c r="I13" t="n">
-        <v>102.4585828702528</v>
+        <v>102.4585828702529</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>98.06186232216683</v>
+        <v>98.06186232216689</v>
       </c>
       <c r="S13" t="n">
-        <v>193.3075723195359</v>
+        <v>193.307572319536</v>
       </c>
       <c r="T13" t="n">
         <v>220.4165116571834</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2229134700513</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>125.6168298691683</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23653,16 +23653,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>40.70903992725154</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.2288547737337</v>
@@ -23671,7 +23671,7 @@
         <v>146.5602830177929</v>
       </c>
       <c r="I16" t="n">
-        <v>102.4585828702529</v>
+        <v>102.4585828702528</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,28 +23698,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>98.06186232216687</v>
+        <v>98.06186232216683</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>193.3075723195359</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>220.4165116571834</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>208.4075679934506</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23890,16 +23890,16 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>8.837731688122574</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>98.06186232216687</v>
+        <v>98.06186232216689</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>193.307572319536</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23947,16 +23947,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>190.7678049837974</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.2288547737337</v>
       </c>
       <c r="H22" t="n">
-        <v>146.5602830177929</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>102.4585828702529</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>60.16125861876586</v>
       </c>
       <c r="S22" t="n">
         <v>193.307572319536</v>
@@ -24181,19 +24181,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2229134700513</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>11.13319116410302</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24373,13 +24373,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.2288547737337</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>146.5602830177929</v>
       </c>
       <c r="I25" t="n">
         <v>102.4585828702529</v>
@@ -24409,28 +24409,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>98.06186232216687</v>
+        <v>98.06186232216689</v>
       </c>
       <c r="S25" t="n">
-        <v>103.3107965374147</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2229134700513</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>38.014542347662</v>
       </c>
     </row>
     <row r="26">
@@ -24601,16 +24601,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>93.45382381921917</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.0258082590282</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>16.14213605696643</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24658,7 +24658,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24847,7 +24847,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>166.0258082590282</v>
@@ -24856,7 +24856,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>8.333790776629613</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,16 +24883,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>16.14213605696639</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25078,10 +25078,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>87.15817019402276</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25093,7 +25093,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,16 +25120,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>16.14213605696591</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25555,7 +25555,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>5.400124791776761e-13</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25798,13 +25798,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>-2.577937990865371e-13</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>5.186961971048731e-13</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1129766.267311743</v>
+        <v>1129766.267311742</v>
       </c>
     </row>
     <row r="6">
@@ -26317,31 +26317,31 @@
         <v>287364.6194524994</v>
       </c>
       <c r="D2" t="n">
-        <v>287364.6194524996</v>
+        <v>287364.6194524994</v>
       </c>
       <c r="E2" t="n">
-        <v>276118.0828059802</v>
+        <v>276118.0828059801</v>
       </c>
       <c r="F2" t="n">
+        <v>276118.08280598</v>
+      </c>
+      <c r="G2" t="n">
+        <v>276118.08280598</v>
+      </c>
+      <c r="H2" t="n">
         <v>276118.0828059801</v>
       </c>
-      <c r="G2" t="n">
-        <v>276118.0828059801</v>
-      </c>
-      <c r="H2" t="n">
-        <v>276118.0828059802</v>
-      </c>
       <c r="I2" t="n">
-        <v>276118.0828059802</v>
+        <v>276118.08280598</v>
       </c>
       <c r="J2" t="n">
         <v>277957.2508208881</v>
       </c>
       <c r="K2" t="n">
-        <v>277957.2508208883</v>
+        <v>277957.2508208882</v>
       </c>
       <c r="L2" t="n">
-        <v>277957.2508208882</v>
+        <v>277957.2508208881</v>
       </c>
       <c r="M2" t="n">
         <v>287364.6194524994</v>
@@ -26350,10 +26350,10 @@
         <v>287364.6194524994</v>
       </c>
       <c r="O2" t="n">
-        <v>287364.6194524995</v>
+        <v>287364.6194524994</v>
       </c>
       <c r="P2" t="n">
-        <v>287364.6194524994</v>
+        <v>287364.6194524996</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,10 +26372,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>639598.3910328823</v>
+        <v>639598.3910328818</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>5.391791546571767e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,13 +26387,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>257371.5071467813</v>
+        <v>257371.5071467814</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1.62584001373034e-10</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>169461.7256516755</v>
@@ -26424,7 +26424,7 @@
         <v>183348.686857128</v>
       </c>
       <c r="E4" t="n">
-        <v>26084.25031398453</v>
+        <v>26084.25031398456</v>
       </c>
       <c r="F4" t="n">
         <v>26084.25031398454</v>
@@ -26433,31 +26433,31 @@
         <v>26084.25031398458</v>
       </c>
       <c r="H4" t="n">
+        <v>26084.25031398457</v>
+      </c>
+      <c r="I4" t="n">
         <v>26084.25031398458</v>
-      </c>
-      <c r="I4" t="n">
-        <v>26084.25031398457</v>
       </c>
       <c r="J4" t="n">
         <v>18148.49231918994</v>
       </c>
       <c r="K4" t="n">
-        <v>18148.49231918993</v>
+        <v>18148.49231918992</v>
       </c>
       <c r="L4" t="n">
-        <v>18148.49231918993</v>
+        <v>18148.49231918994</v>
       </c>
       <c r="M4" t="n">
-        <v>33605.65329740897</v>
+        <v>33605.65329740895</v>
       </c>
       <c r="N4" t="n">
-        <v>33605.65329740895</v>
+        <v>33605.65329740899</v>
       </c>
       <c r="O4" t="n">
-        <v>33605.65329740895</v>
+        <v>33605.65329740901</v>
       </c>
       <c r="P4" t="n">
-        <v>33605.653297409</v>
+        <v>33605.65329740901</v>
       </c>
     </row>
     <row r="5">
@@ -26476,10 +26476,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
+        <v>94475.20814694397</v>
+      </c>
+      <c r="F5" t="n">
         <v>94475.20814694399</v>
-      </c>
-      <c r="F5" t="n">
-        <v>94475.20814694397</v>
       </c>
       <c r="G5" t="n">
         <v>94475.20814694397</v>
@@ -26494,7 +26494,7 @@
         <v>96383.51825371366</v>
       </c>
       <c r="K5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="L5" t="n">
         <v>96383.51825371366</v>
@@ -26522,46 +26522,46 @@
         <v>-568811.0246825825</v>
       </c>
       <c r="C6" t="n">
-        <v>21156.85453196196</v>
+        <v>21156.85453196193</v>
       </c>
       <c r="D6" t="n">
-        <v>21156.85453196213</v>
+        <v>21156.8545319619</v>
       </c>
       <c r="E6" t="n">
-        <v>-484039.7666878306</v>
+        <v>-484120.0990924483</v>
       </c>
       <c r="F6" t="n">
-        <v>155558.6243450521</v>
+        <v>155478.2919404329</v>
       </c>
       <c r="G6" t="n">
-        <v>155558.6243450516</v>
+        <v>155478.291940434</v>
       </c>
       <c r="H6" t="n">
-        <v>155558.6243450516</v>
+        <v>155478.2919404335</v>
       </c>
       <c r="I6" t="n">
-        <v>155558.6243450517</v>
+        <v>155478.2919404334</v>
       </c>
       <c r="J6" t="n">
-        <v>-93946.26689879673</v>
+        <v>-94013.46238902265</v>
       </c>
       <c r="K6" t="n">
-        <v>163425.2402479849</v>
+        <v>163358.0447577588</v>
       </c>
       <c r="L6" t="n">
-        <v>163425.2402479844</v>
+        <v>163358.0447577587</v>
       </c>
       <c r="M6" t="n">
-        <v>-16035.43051068721</v>
+        <v>-16035.43051068723</v>
       </c>
       <c r="N6" t="n">
+        <v>153426.2951409883</v>
+      </c>
+      <c r="O6" t="n">
+        <v>153426.2951409883</v>
+      </c>
+      <c r="P6" t="n">
         <v>153426.2951409884</v>
-      </c>
-      <c r="O6" t="n">
-        <v>153426.2951409884</v>
-      </c>
-      <c r="P6" t="n">
-        <v>153426.2951409883</v>
       </c>
     </row>
   </sheetData>
@@ -26716,16 +26716,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="N2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="O2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="3">
@@ -26735,28 +26735,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
+        <v>977.1781788020946</v>
+      </c>
+      <c r="F3" t="n">
         <v>977.1781788020953</v>
       </c>
-      <c r="F3" t="n">
-        <v>977.1781788020947</v>
-      </c>
       <c r="G3" t="n">
-        <v>977.1781788020947</v>
+        <v>977.1781788020946</v>
       </c>
       <c r="H3" t="n">
-        <v>977.1781788020947</v>
+        <v>977.1781788020946</v>
       </c>
       <c r="I3" t="n">
-        <v>977.1781788020947</v>
+        <v>977.1781788020946</v>
       </c>
       <c r="J3" t="n">
         <v>1089.776700593298</v>
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1203.498747517406</v>
@@ -26938,7 +26938,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,10 +26966,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>599.4345145850086</v>
+        <v>599.4345145850081</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26981,13 +26981,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>112.5985217912036</v>
+        <v>112.5985217912037</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>529.2114747628508</v>
+        <v>529.2114747628509</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>529.2114747628508</v>
+        <v>529.2114747628509</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>529.2114747628508</v>
+        <v>529.2114747628509</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>315.1138390177242</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27385,19 +27385,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>329.9108728657034</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,19 +27424,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27537,13 +27537,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>81.37511273779111</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>128.3696061739697</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27555,10 +27555,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,10 +27579,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27600,7 +27600,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>89.723820626514</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -27670,16 +27670,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>321.468579306131</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27774,13 +27774,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27789,10 +27789,10 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>142.8881544116903</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>56.8258083455525</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27816,13 +27816,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27850,19 +27850,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>117.4698976893043</v>
+        <v>270.0325376351104</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -27910,16 +27910,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,28 +28011,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>110.8840461544036</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,22 +28053,22 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>28.31325977179802</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28539,7 +28539,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>-2.813749233609997e-12</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -29512,7 +29512,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -29569,7 +29569,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="J37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="L37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="N37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="O37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Q37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="R37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="S37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="J40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="K40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="L40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="M40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="N40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="O40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="P40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="R40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="S40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="J43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="L43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="N43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="O43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="R43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="S43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
   </sheetData>
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31197,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,22 +31221,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31276,13 +31276,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31300,22 +31300,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31388,16 +31388,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,13 +31458,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31473,7 +31473,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,22 +31695,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.928354487646611</v>
+        <v>3.928354487646609</v>
       </c>
       <c r="H11" t="n">
-        <v>40.23126039661087</v>
+        <v>40.23126039661084</v>
       </c>
       <c r="I11" t="n">
-        <v>151.4478863849961</v>
+        <v>151.447886384996</v>
       </c>
       <c r="J11" t="n">
-        <v>333.4141766958969</v>
+        <v>333.4141766958966</v>
       </c>
       <c r="K11" t="n">
-        <v>499.701422157978</v>
+        <v>499.7014221579777</v>
       </c>
       <c r="L11" t="n">
-        <v>619.9238008092932</v>
+        <v>619.9238008092927</v>
       </c>
       <c r="M11" t="n">
-        <v>689.7846749289786</v>
+        <v>689.7846749289781</v>
       </c>
       <c r="N11" t="n">
-        <v>700.9461121170045</v>
+        <v>700.9461121170041</v>
       </c>
       <c r="O11" t="n">
-        <v>661.8835371804685</v>
+        <v>661.883537180468</v>
       </c>
       <c r="P11" t="n">
-        <v>564.9022857666927</v>
+        <v>564.9022857666923</v>
       </c>
       <c r="Q11" t="n">
-        <v>424.2180906778483</v>
+        <v>424.218090677848</v>
       </c>
       <c r="R11" t="n">
-        <v>246.7644975846317</v>
+        <v>246.7644975846315</v>
       </c>
       <c r="S11" t="n">
-        <v>89.51737788724725</v>
+        <v>89.51737788724718</v>
       </c>
       <c r="T11" t="n">
-        <v>17.19637176967305</v>
+        <v>17.19637176967304</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3142683590117288</v>
+        <v>0.3142683590117286</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.101854950630922</v>
+        <v>2.101854950630921</v>
       </c>
       <c r="H12" t="n">
-        <v>20.29949386530391</v>
+        <v>20.29949386530389</v>
       </c>
       <c r="I12" t="n">
-        <v>72.3664972037401</v>
+        <v>72.36649720374004</v>
       </c>
       <c r="J12" t="n">
-        <v>198.5791995243013</v>
+        <v>198.5791995243012</v>
       </c>
       <c r="K12" t="n">
-        <v>339.4034812165731</v>
+        <v>339.4034812165729</v>
       </c>
       <c r="L12" t="n">
-        <v>456.3698654867711</v>
+        <v>456.3698654867708</v>
       </c>
       <c r="M12" t="n">
-        <v>532.5621074471419</v>
+        <v>532.5621074471416</v>
       </c>
       <c r="N12" t="n">
-        <v>546.657441743259</v>
+        <v>546.6574417432586</v>
       </c>
       <c r="O12" t="n">
-        <v>500.0847609950685</v>
+        <v>500.0847609950682</v>
       </c>
       <c r="P12" t="n">
-        <v>401.3621089498644</v>
+        <v>401.3621089498641</v>
       </c>
       <c r="Q12" t="n">
-        <v>268.2999407156244</v>
+        <v>268.2999407156242</v>
       </c>
       <c r="R12" t="n">
-        <v>130.4993801804006</v>
+        <v>130.4993801804005</v>
       </c>
       <c r="S12" t="n">
-        <v>39.04103384176293</v>
+        <v>39.0410338417629</v>
       </c>
       <c r="T12" t="n">
-        <v>8.471950436972881</v>
+        <v>8.471950436972874</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1382799309625607</v>
+        <v>0.1382799309625606</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.76212458472509</v>
+        <v>1.762124584725088</v>
       </c>
       <c r="H13" t="n">
-        <v>15.66688948964672</v>
+        <v>15.66688948964671</v>
       </c>
       <c r="I13" t="n">
-        <v>52.99189205700544</v>
+        <v>52.99189205700541</v>
       </c>
       <c r="J13" t="n">
         <v>124.5822081400638</v>
       </c>
       <c r="K13" t="n">
-        <v>204.7268381162422</v>
+        <v>204.726838116242</v>
       </c>
       <c r="L13" t="n">
-        <v>261.9798678054011</v>
+        <v>261.9798678054009</v>
       </c>
       <c r="M13" t="n">
-        <v>276.2210383128611</v>
+        <v>276.2210383128609</v>
       </c>
       <c r="N13" t="n">
-        <v>269.6531194061587</v>
+        <v>269.6531194061585</v>
       </c>
       <c r="O13" t="n">
-        <v>249.0683003936882</v>
+        <v>249.068300393688</v>
       </c>
       <c r="P13" t="n">
-        <v>213.1209588652962</v>
+        <v>213.1209588652961</v>
       </c>
       <c r="Q13" t="n">
-        <v>147.5539049991164</v>
+        <v>147.5539049991163</v>
       </c>
       <c r="R13" t="n">
-        <v>79.23152905500265</v>
+        <v>79.2315290550026</v>
       </c>
       <c r="S13" t="n">
-        <v>30.70902571743633</v>
+        <v>30.7090257174363</v>
       </c>
       <c r="T13" t="n">
-        <v>7.529077771098109</v>
+        <v>7.529077771098104</v>
       </c>
       <c r="U13" t="n">
-        <v>0.09611588643955046</v>
+        <v>0.09611588643955039</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.928354487646609</v>
+        <v>3.928354487646611</v>
       </c>
       <c r="H14" t="n">
-        <v>40.23126039661084</v>
+        <v>40.23126039661087</v>
       </c>
       <c r="I14" t="n">
         <v>151.4478863849961</v>
       </c>
       <c r="J14" t="n">
-        <v>333.4141766958967</v>
+        <v>333.4141766958969</v>
       </c>
       <c r="K14" t="n">
-        <v>499.7014221579777</v>
+        <v>499.701422157978</v>
       </c>
       <c r="L14" t="n">
-        <v>619.9238008092927</v>
+        <v>619.9238008092932</v>
       </c>
       <c r="M14" t="n">
-        <v>689.7846749289781</v>
+        <v>689.7846749289786</v>
       </c>
       <c r="N14" t="n">
-        <v>700.9461121170042</v>
+        <v>700.9461121170045</v>
       </c>
       <c r="O14" t="n">
-        <v>661.8835371804681</v>
+        <v>661.8835371804685</v>
       </c>
       <c r="P14" t="n">
-        <v>564.9022857666923</v>
+        <v>564.9022857666927</v>
       </c>
       <c r="Q14" t="n">
-        <v>424.2180906778481</v>
+        <v>424.2180906778483</v>
       </c>
       <c r="R14" t="n">
-        <v>246.7644975846315</v>
+        <v>246.7644975846317</v>
       </c>
       <c r="S14" t="n">
-        <v>89.51737788724719</v>
+        <v>89.51737788724725</v>
       </c>
       <c r="T14" t="n">
-        <v>17.19637176967304</v>
+        <v>17.19637176967305</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3142683590117287</v>
+        <v>0.3142683590117288</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.101854950630921</v>
+        <v>2.101854950630922</v>
       </c>
       <c r="H15" t="n">
-        <v>20.2994938653039</v>
+        <v>20.29949386530391</v>
       </c>
       <c r="I15" t="n">
-        <v>72.36649720374005</v>
+        <v>72.3664972037401</v>
       </c>
       <c r="J15" t="n">
-        <v>198.5791995243012</v>
+        <v>198.5791995243013</v>
       </c>
       <c r="K15" t="n">
-        <v>339.4034812165729</v>
+        <v>339.4034812165731</v>
       </c>
       <c r="L15" t="n">
-        <v>456.3698654867708</v>
+        <v>456.3698654867711</v>
       </c>
       <c r="M15" t="n">
-        <v>532.5621074471416</v>
+        <v>532.5621074471419</v>
       </c>
       <c r="N15" t="n">
-        <v>546.6574417432587</v>
+        <v>546.657441743259</v>
       </c>
       <c r="O15" t="n">
-        <v>500.0847609950682</v>
+        <v>500.0847609950685</v>
       </c>
       <c r="P15" t="n">
-        <v>401.3621089498642</v>
+        <v>401.3621089498644</v>
       </c>
       <c r="Q15" t="n">
-        <v>268.2999407156242</v>
+        <v>268.2999407156244</v>
       </c>
       <c r="R15" t="n">
-        <v>130.4993801804005</v>
+        <v>130.4993801804006</v>
       </c>
       <c r="S15" t="n">
-        <v>39.04103384176291</v>
+        <v>39.04103384176293</v>
       </c>
       <c r="T15" t="n">
-        <v>8.471950436972875</v>
+        <v>8.471950436972881</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1382799309625606</v>
+        <v>0.1382799309625607</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.762124584725089</v>
+        <v>1.76212458472509</v>
       </c>
       <c r="H16" t="n">
-        <v>15.66688948964671</v>
+        <v>15.66688948964672</v>
       </c>
       <c r="I16" t="n">
-        <v>52.99189205700541</v>
+        <v>52.99189205700544</v>
       </c>
       <c r="J16" t="n">
         <v>124.5822081400638</v>
       </c>
       <c r="K16" t="n">
-        <v>204.7268381162421</v>
+        <v>204.7268381162422</v>
       </c>
       <c r="L16" t="n">
-        <v>261.9798678054009</v>
+        <v>261.9798678054011</v>
       </c>
       <c r="M16" t="n">
-        <v>276.2210383128609</v>
+        <v>276.2210383128611</v>
       </c>
       <c r="N16" t="n">
-        <v>269.6531194061585</v>
+        <v>269.6531194061587</v>
       </c>
       <c r="O16" t="n">
-        <v>249.0683003936881</v>
+        <v>249.0683003936882</v>
       </c>
       <c r="P16" t="n">
-        <v>213.1209588652961</v>
+        <v>213.1209588652962</v>
       </c>
       <c r="Q16" t="n">
-        <v>147.5539049991163</v>
+        <v>147.5539049991164</v>
       </c>
       <c r="R16" t="n">
-        <v>79.23152905500261</v>
+        <v>79.23152905500265</v>
       </c>
       <c r="S16" t="n">
-        <v>30.70902571743631</v>
+        <v>30.70902571743633</v>
       </c>
       <c r="T16" t="n">
-        <v>7.529077771098104</v>
+        <v>7.529077771098109</v>
       </c>
       <c r="U16" t="n">
-        <v>0.09611588643955041</v>
+        <v>0.09611588643955046</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32230,10 +32230,10 @@
         <v>40.23126039661084</v>
       </c>
       <c r="I17" t="n">
-        <v>151.4478863849961</v>
+        <v>151.447886384996</v>
       </c>
       <c r="J17" t="n">
-        <v>333.4141766958967</v>
+        <v>333.4141766958966</v>
       </c>
       <c r="K17" t="n">
         <v>499.7014221579777</v>
@@ -32245,28 +32245,28 @@
         <v>689.7846749289781</v>
       </c>
       <c r="N17" t="n">
-        <v>700.9461121170042</v>
+        <v>700.9461121170041</v>
       </c>
       <c r="O17" t="n">
-        <v>661.8835371804681</v>
+        <v>661.883537180468</v>
       </c>
       <c r="P17" t="n">
         <v>564.9022857666923</v>
       </c>
       <c r="Q17" t="n">
-        <v>424.2180906778481</v>
+        <v>424.218090677848</v>
       </c>
       <c r="R17" t="n">
         <v>246.7644975846315</v>
       </c>
       <c r="S17" t="n">
-        <v>89.51737788724719</v>
+        <v>89.51737788724718</v>
       </c>
       <c r="T17" t="n">
         <v>17.19637176967304</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3142683590117287</v>
+        <v>0.3142683590117286</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32306,10 +32306,10 @@
         <v>2.101854950630921</v>
       </c>
       <c r="H18" t="n">
-        <v>20.2994938653039</v>
+        <v>20.29949386530389</v>
       </c>
       <c r="I18" t="n">
-        <v>72.36649720374005</v>
+        <v>72.36649720374004</v>
       </c>
       <c r="J18" t="n">
         <v>198.5791995243012</v>
@@ -32324,13 +32324,13 @@
         <v>532.5621074471416</v>
       </c>
       <c r="N18" t="n">
-        <v>546.6574417432587</v>
+        <v>546.6574417432586</v>
       </c>
       <c r="O18" t="n">
         <v>500.0847609950682</v>
       </c>
       <c r="P18" t="n">
-        <v>401.3621089498642</v>
+        <v>401.3621089498641</v>
       </c>
       <c r="Q18" t="n">
         <v>268.2999407156242</v>
@@ -32339,10 +32339,10 @@
         <v>130.4993801804005</v>
       </c>
       <c r="S18" t="n">
-        <v>39.04103384176291</v>
+        <v>39.0410338417629</v>
       </c>
       <c r="T18" t="n">
-        <v>8.471950436972875</v>
+        <v>8.471950436972874</v>
       </c>
       <c r="U18" t="n">
         <v>0.1382799309625606</v>
@@ -32382,7 +32382,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.762124584725089</v>
+        <v>1.762124584725088</v>
       </c>
       <c r="H19" t="n">
         <v>15.66688948964671</v>
@@ -32394,7 +32394,7 @@
         <v>124.5822081400638</v>
       </c>
       <c r="K19" t="n">
-        <v>204.7268381162421</v>
+        <v>204.726838116242</v>
       </c>
       <c r="L19" t="n">
         <v>261.9798678054009</v>
@@ -32406,7 +32406,7 @@
         <v>269.6531194061585</v>
       </c>
       <c r="O19" t="n">
-        <v>249.0683003936881</v>
+        <v>249.068300393688</v>
       </c>
       <c r="P19" t="n">
         <v>213.1209588652961</v>
@@ -32415,16 +32415,16 @@
         <v>147.5539049991163</v>
       </c>
       <c r="R19" t="n">
-        <v>79.23152905500261</v>
+        <v>79.2315290550026</v>
       </c>
       <c r="S19" t="n">
-        <v>30.70902571743631</v>
+        <v>30.7090257174363</v>
       </c>
       <c r="T19" t="n">
         <v>7.529077771098104</v>
       </c>
       <c r="U19" t="n">
-        <v>0.09611588643955041</v>
+        <v>0.09611588643955039</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32467,10 +32467,10 @@
         <v>40.23126039661084</v>
       </c>
       <c r="I20" t="n">
-        <v>151.4478863849961</v>
+        <v>151.447886384996</v>
       </c>
       <c r="J20" t="n">
-        <v>333.4141766958967</v>
+        <v>333.4141766958966</v>
       </c>
       <c r="K20" t="n">
         <v>499.7014221579777</v>
@@ -32482,28 +32482,28 @@
         <v>689.7846749289781</v>
       </c>
       <c r="N20" t="n">
-        <v>700.9461121170042</v>
+        <v>700.9461121170041</v>
       </c>
       <c r="O20" t="n">
-        <v>661.8835371804681</v>
+        <v>661.883537180468</v>
       </c>
       <c r="P20" t="n">
         <v>564.9022857666923</v>
       </c>
       <c r="Q20" t="n">
-        <v>424.2180906778481</v>
+        <v>424.218090677848</v>
       </c>
       <c r="R20" t="n">
         <v>246.7644975846315</v>
       </c>
       <c r="S20" t="n">
-        <v>89.51737788724719</v>
+        <v>89.51737788724718</v>
       </c>
       <c r="T20" t="n">
         <v>17.19637176967304</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3142683590117287</v>
+        <v>0.3142683590117286</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32543,10 +32543,10 @@
         <v>2.101854950630921</v>
       </c>
       <c r="H21" t="n">
-        <v>20.2994938653039</v>
+        <v>20.29949386530389</v>
       </c>
       <c r="I21" t="n">
-        <v>72.36649720374005</v>
+        <v>72.36649720374004</v>
       </c>
       <c r="J21" t="n">
         <v>198.5791995243012</v>
@@ -32561,13 +32561,13 @@
         <v>532.5621074471416</v>
       </c>
       <c r="N21" t="n">
-        <v>546.6574417432587</v>
+        <v>546.6574417432586</v>
       </c>
       <c r="O21" t="n">
         <v>500.0847609950682</v>
       </c>
       <c r="P21" t="n">
-        <v>401.3621089498642</v>
+        <v>401.3621089498641</v>
       </c>
       <c r="Q21" t="n">
         <v>268.2999407156242</v>
@@ -32576,10 +32576,10 @@
         <v>130.4993801804005</v>
       </c>
       <c r="S21" t="n">
-        <v>39.04103384176291</v>
+        <v>39.0410338417629</v>
       </c>
       <c r="T21" t="n">
-        <v>8.471950436972875</v>
+        <v>8.471950436972874</v>
       </c>
       <c r="U21" t="n">
         <v>0.1382799309625606</v>
@@ -32619,7 +32619,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.762124584725089</v>
+        <v>1.762124584725088</v>
       </c>
       <c r="H22" t="n">
         <v>15.66688948964671</v>
@@ -32631,7 +32631,7 @@
         <v>124.5822081400638</v>
       </c>
       <c r="K22" t="n">
-        <v>204.7268381162421</v>
+        <v>204.726838116242</v>
       </c>
       <c r="L22" t="n">
         <v>261.9798678054009</v>
@@ -32643,7 +32643,7 @@
         <v>269.6531194061585</v>
       </c>
       <c r="O22" t="n">
-        <v>249.0683003936881</v>
+        <v>249.068300393688</v>
       </c>
       <c r="P22" t="n">
         <v>213.1209588652961</v>
@@ -32652,16 +32652,16 @@
         <v>147.5539049991163</v>
       </c>
       <c r="R22" t="n">
-        <v>79.23152905500261</v>
+        <v>79.2315290550026</v>
       </c>
       <c r="S22" t="n">
-        <v>30.70902571743631</v>
+        <v>30.7090257174363</v>
       </c>
       <c r="T22" t="n">
         <v>7.529077771098104</v>
       </c>
       <c r="U22" t="n">
-        <v>0.09611588643955041</v>
+        <v>0.09611588643955039</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32704,10 +32704,10 @@
         <v>40.23126039661084</v>
       </c>
       <c r="I23" t="n">
-        <v>151.4478863849961</v>
+        <v>151.447886384996</v>
       </c>
       <c r="J23" t="n">
-        <v>333.4141766958967</v>
+        <v>333.4141766958966</v>
       </c>
       <c r="K23" t="n">
         <v>499.7014221579777</v>
@@ -32719,28 +32719,28 @@
         <v>689.7846749289781</v>
       </c>
       <c r="N23" t="n">
-        <v>700.9461121170042</v>
+        <v>700.9461121170041</v>
       </c>
       <c r="O23" t="n">
-        <v>661.8835371804681</v>
+        <v>661.883537180468</v>
       </c>
       <c r="P23" t="n">
         <v>564.9022857666923</v>
       </c>
       <c r="Q23" t="n">
-        <v>424.2180906778481</v>
+        <v>424.218090677848</v>
       </c>
       <c r="R23" t="n">
         <v>246.7644975846315</v>
       </c>
       <c r="S23" t="n">
-        <v>89.51737788724719</v>
+        <v>89.51737788724718</v>
       </c>
       <c r="T23" t="n">
         <v>17.19637176967304</v>
       </c>
       <c r="U23" t="n">
-        <v>0.3142683590117287</v>
+        <v>0.3142683590117286</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32780,10 +32780,10 @@
         <v>2.101854950630921</v>
       </c>
       <c r="H24" t="n">
-        <v>20.2994938653039</v>
+        <v>20.29949386530389</v>
       </c>
       <c r="I24" t="n">
-        <v>72.36649720374005</v>
+        <v>72.36649720374004</v>
       </c>
       <c r="J24" t="n">
         <v>198.5791995243012</v>
@@ -32798,13 +32798,13 @@
         <v>532.5621074471416</v>
       </c>
       <c r="N24" t="n">
-        <v>546.6574417432587</v>
+        <v>546.6574417432586</v>
       </c>
       <c r="O24" t="n">
         <v>500.0847609950682</v>
       </c>
       <c r="P24" t="n">
-        <v>401.3621089498642</v>
+        <v>401.3621089498641</v>
       </c>
       <c r="Q24" t="n">
         <v>268.2999407156242</v>
@@ -32813,10 +32813,10 @@
         <v>130.4993801804005</v>
       </c>
       <c r="S24" t="n">
-        <v>39.04103384176291</v>
+        <v>39.0410338417629</v>
       </c>
       <c r="T24" t="n">
-        <v>8.471950436972875</v>
+        <v>8.471950436972874</v>
       </c>
       <c r="U24" t="n">
         <v>0.1382799309625606</v>
@@ -32856,7 +32856,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.762124584725089</v>
+        <v>1.762124584725088</v>
       </c>
       <c r="H25" t="n">
         <v>15.66688948964671</v>
@@ -32868,7 +32868,7 @@
         <v>124.5822081400638</v>
       </c>
       <c r="K25" t="n">
-        <v>204.7268381162421</v>
+        <v>204.726838116242</v>
       </c>
       <c r="L25" t="n">
         <v>261.9798678054009</v>
@@ -32880,7 +32880,7 @@
         <v>269.6531194061585</v>
       </c>
       <c r="O25" t="n">
-        <v>249.0683003936881</v>
+        <v>249.068300393688</v>
       </c>
       <c r="P25" t="n">
         <v>213.1209588652961</v>
@@ -32889,16 +32889,16 @@
         <v>147.5539049991163</v>
       </c>
       <c r="R25" t="n">
-        <v>79.23152905500261</v>
+        <v>79.2315290550026</v>
       </c>
       <c r="S25" t="n">
-        <v>30.70902571743631</v>
+        <v>30.7090257174363</v>
       </c>
       <c r="T25" t="n">
         <v>7.529077771098104</v>
       </c>
       <c r="U25" t="n">
-        <v>0.09611588643955041</v>
+        <v>0.09611588643955039</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I29" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33257,40 +33257,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O30" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33330,13 +33330,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33345,16 +33345,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33363,16 +33363,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I38" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33968,40 +33968,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026444</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O39" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34041,13 +34041,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34056,16 +34056,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34074,16 +34074,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I41" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34205,40 +34205,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138801</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O42" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34278,13 +34278,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34293,16 +34293,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34311,16 +34311,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34445,7 +34445,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026444</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
@@ -34696,25 +34696,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34784,16 +34784,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>410.005506727916</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34872,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34942,16 +34942,16 @@
         <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060963</v>
       </c>
       <c r="N5" t="n">
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35027,13 +35027,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>325.1459203262125</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,25 +35170,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35261,16 +35261,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>321.4648873412844</v>
+        <v>152.3682721692103</v>
       </c>
       <c r="K11" t="n">
-        <v>379.1907647109122</v>
+        <v>603.7569836841619</v>
       </c>
       <c r="L11" t="n">
-        <v>801.8186003897564</v>
+        <v>801.8186003897559</v>
       </c>
       <c r="M11" t="n">
-        <v>908.9519751945384</v>
+        <v>908.9519751945379</v>
       </c>
       <c r="N11" t="n">
-        <v>908.8799729323978</v>
+        <v>908.8799729323973</v>
       </c>
       <c r="O11" t="n">
-        <v>812.5855070215271</v>
+        <v>812.5855070215266</v>
       </c>
       <c r="P11" t="n">
-        <v>333.6692900114231</v>
+        <v>343.9161060832317</v>
       </c>
       <c r="Q11" t="n">
-        <v>201.9124008033988</v>
+        <v>201.9124008033985</v>
       </c>
       <c r="R11" t="n">
-        <v>96.89537964348199</v>
+        <v>31.17895977049938</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>197.8326081980435</v>
+        <v>71.74157285763448</v>
       </c>
       <c r="K12" t="n">
-        <v>245.3824035673856</v>
+        <v>201.5620422422139</v>
       </c>
       <c r="L12" t="n">
-        <v>317.8154857068969</v>
+        <v>317.8154857068966</v>
       </c>
       <c r="M12" t="n">
-        <v>390.4280735251236</v>
+        <v>390.4280735251232</v>
       </c>
       <c r="N12" t="n">
-        <v>415.3157296599258</v>
+        <v>415.3157296599253</v>
       </c>
       <c r="O12" t="n">
-        <v>357.4885165506241</v>
+        <v>357.4885165506237</v>
       </c>
       <c r="P12" t="n">
-        <v>267.3877015355342</v>
+        <v>437.2990982011164</v>
       </c>
       <c r="Q12" t="n">
-        <v>338.395454365452</v>
+        <v>338.3954543654518</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>31.22302802339107</v>
+        <v>31.22302802339098</v>
       </c>
       <c r="K13" t="n">
-        <v>182.4573462903593</v>
+        <v>182.4573462903592</v>
       </c>
       <c r="L13" t="n">
-        <v>289.5698930657172</v>
+        <v>289.5698930657171</v>
       </c>
       <c r="M13" t="n">
-        <v>315.8049152747017</v>
+        <v>315.8049152747014</v>
       </c>
       <c r="N13" t="n">
-        <v>313.7852917853872</v>
+        <v>313.7852917853871</v>
       </c>
       <c r="O13" t="n">
-        <v>273.6534283077279</v>
+        <v>273.6534283077277</v>
       </c>
       <c r="P13" t="n">
-        <v>210.3995181301897</v>
+        <v>210.3995181301896</v>
       </c>
       <c r="Q13" t="n">
-        <v>61.391861747422</v>
+        <v>61.39186174742191</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>152.3682721692104</v>
+        <v>152.3682721692106</v>
       </c>
       <c r="K14" t="n">
-        <v>603.7569836841619</v>
+        <v>603.7569836841622</v>
       </c>
       <c r="L14" t="n">
-        <v>801.8186003897559</v>
+        <v>801.8186003897564</v>
       </c>
       <c r="M14" t="n">
-        <v>459.4384417017054</v>
+        <v>908.9519751945384</v>
       </c>
       <c r="N14" t="n">
-        <v>908.8799729323974</v>
+        <v>908.8799729323978</v>
       </c>
       <c r="O14" t="n">
-        <v>812.5855070215267</v>
+        <v>431.7853257587817</v>
       </c>
       <c r="P14" t="n">
-        <v>655.4679981829054</v>
+        <v>655.4679981829058</v>
       </c>
       <c r="Q14" t="n">
-        <v>339.874042196558</v>
+        <v>271.1606899664684</v>
       </c>
       <c r="R14" t="n">
-        <v>31.1789597704994</v>
+        <v>31.17895977049955</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>71.74157285763451</v>
+        <v>71.74157285763462</v>
       </c>
       <c r="K15" t="n">
-        <v>201.5620422422139</v>
+        <v>466.0272792547927</v>
       </c>
       <c r="L15" t="n">
-        <v>317.8154857068967</v>
+        <v>317.8154857068969</v>
       </c>
       <c r="M15" t="n">
-        <v>390.4280735251232</v>
+        <v>390.4280735251236</v>
       </c>
       <c r="N15" t="n">
-        <v>415.3157296599254</v>
+        <v>415.3157296599258</v>
       </c>
       <c r="O15" t="n">
-        <v>357.4885165506238</v>
+        <v>357.4885165506241</v>
       </c>
       <c r="P15" t="n">
-        <v>437.2990982011162</v>
+        <v>267.3877015355342</v>
       </c>
       <c r="Q15" t="n">
-        <v>338.3954543654518</v>
+        <v>243.8416140184541</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>31.223028023391</v>
+        <v>31.22302802339107</v>
       </c>
       <c r="K16" t="n">
-        <v>182.4573462903592</v>
+        <v>182.4573462903593</v>
       </c>
       <c r="L16" t="n">
-        <v>289.5698930657171</v>
+        <v>289.5698930657172</v>
       </c>
       <c r="M16" t="n">
-        <v>315.8049152747015</v>
+        <v>315.8049152747017</v>
       </c>
       <c r="N16" t="n">
-        <v>313.7852917853871</v>
+        <v>313.7852917853872</v>
       </c>
       <c r="O16" t="n">
-        <v>273.6534283077277</v>
+        <v>273.6534283077279</v>
       </c>
       <c r="P16" t="n">
-        <v>210.3995181301896</v>
+        <v>210.3995181301897</v>
       </c>
       <c r="Q16" t="n">
-        <v>61.39186174742191</v>
+        <v>61.391861747422</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,10 +35881,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>321.4648873412842</v>
+        <v>152.3682721692103</v>
       </c>
       <c r="K17" t="n">
-        <v>379.1907647109157</v>
+        <v>603.7569836841619</v>
       </c>
       <c r="L17" t="n">
         <v>801.8186003897559</v>
@@ -35893,19 +35893,19 @@
         <v>908.9519751945379</v>
       </c>
       <c r="N17" t="n">
-        <v>908.8799729323974</v>
+        <v>908.8799729323973</v>
       </c>
       <c r="O17" t="n">
-        <v>812.5855070215267</v>
+        <v>812.5855070215266</v>
       </c>
       <c r="P17" t="n">
         <v>333.6692900114228</v>
       </c>
       <c r="Q17" t="n">
-        <v>201.9124008033986</v>
+        <v>212.159216875208</v>
       </c>
       <c r="R17" t="n">
-        <v>96.89537964348185</v>
+        <v>31.17895977049938</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>187.2650202464872</v>
+        <v>71.74157285763448</v>
       </c>
       <c r="K18" t="n">
         <v>466.0272792547925</v>
       </c>
       <c r="L18" t="n">
-        <v>317.8154857068967</v>
+        <v>317.8154857068966</v>
       </c>
       <c r="M18" t="n">
         <v>390.4280735251232</v>
       </c>
       <c r="N18" t="n">
-        <v>415.3157296599254</v>
+        <v>415.3157296599253</v>
       </c>
       <c r="O18" t="n">
-        <v>357.4885165506238</v>
+        <v>357.4885165506237</v>
       </c>
       <c r="P18" t="n">
         <v>267.3877015355339</v>
       </c>
       <c r="Q18" t="n">
-        <v>128.3181666296027</v>
+        <v>243.8416140184559</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>31.223028023391</v>
+        <v>31.22302802339098</v>
       </c>
       <c r="K19" t="n">
         <v>182.4573462903592</v>
@@ -36048,7 +36048,7 @@
         <v>289.5698930657171</v>
       </c>
       <c r="M19" t="n">
-        <v>315.8049152747015</v>
+        <v>315.8049152747014</v>
       </c>
       <c r="N19" t="n">
         <v>313.7852917853871</v>
@@ -36118,10 +36118,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>321.4648873412842</v>
+        <v>152.3682721692103</v>
       </c>
       <c r="K20" t="n">
-        <v>379.1907647109157</v>
+        <v>292.2050915844883</v>
       </c>
       <c r="L20" t="n">
         <v>801.8186003897559</v>
@@ -36130,19 +36130,19 @@
         <v>908.9519751945379</v>
       </c>
       <c r="N20" t="n">
-        <v>908.8799729323974</v>
+        <v>908.8799729323973</v>
       </c>
       <c r="O20" t="n">
-        <v>812.5855070215267</v>
+        <v>812.5855070215266</v>
       </c>
       <c r="P20" t="n">
-        <v>333.6692900114228</v>
+        <v>655.4679981829054</v>
       </c>
       <c r="Q20" t="n">
-        <v>201.9124008033986</v>
+        <v>201.9124008033985</v>
       </c>
       <c r="R20" t="n">
-        <v>96.89537964348185</v>
+        <v>31.17895977049938</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>71.74157285763451</v>
+        <v>187.2650202464876</v>
       </c>
       <c r="K21" t="n">
-        <v>371.4734389077961</v>
+        <v>466.0272792547925</v>
       </c>
       <c r="L21" t="n">
-        <v>317.8154857068967</v>
+        <v>317.8154857068966</v>
       </c>
       <c r="M21" t="n">
         <v>390.4280735251232</v>
       </c>
       <c r="N21" t="n">
-        <v>415.3157296599254</v>
+        <v>415.3157296599253</v>
       </c>
       <c r="O21" t="n">
-        <v>357.4885165506238</v>
+        <v>357.4885165506237</v>
       </c>
       <c r="P21" t="n">
         <v>267.3877015355339</v>
       </c>
       <c r="Q21" t="n">
-        <v>338.3954543654518</v>
+        <v>128.3181666296027</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>31.223028023391</v>
+        <v>31.22302802339098</v>
       </c>
       <c r="K22" t="n">
         <v>182.4573462903592</v>
@@ -36285,7 +36285,7 @@
         <v>289.5698930657171</v>
       </c>
       <c r="M22" t="n">
-        <v>315.8049152747015</v>
+        <v>315.8049152747014</v>
       </c>
       <c r="N22" t="n">
         <v>313.7852917853871</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>321.4648873412842</v>
+        <v>162.6150882410199</v>
       </c>
       <c r="K23" t="n">
-        <v>279.6115711129972</v>
+        <v>603.7569836841619</v>
       </c>
       <c r="L23" t="n">
-        <v>384.1573858393055</v>
+        <v>801.8186003897559</v>
       </c>
       <c r="M23" t="n">
-        <v>892.0786845115189</v>
+        <v>908.9519751945379</v>
       </c>
       <c r="N23" t="n">
-        <v>908.8799729323974</v>
+        <v>908.8799729323973</v>
       </c>
       <c r="O23" t="n">
-        <v>812.5855070215267</v>
+        <v>812.5855070215266</v>
       </c>
       <c r="P23" t="n">
-        <v>655.4679981829054</v>
+        <v>333.6692900114228</v>
       </c>
       <c r="Q23" t="n">
-        <v>414.2273914633033</v>
+        <v>201.9124008033985</v>
       </c>
       <c r="R23" t="n">
-        <v>96.89537964348185</v>
+        <v>31.17895977049938</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>197.8326081980433</v>
+        <v>71.74157285763448</v>
       </c>
       <c r="K24" t="n">
-        <v>245.3824035673872</v>
+        <v>466.0272792547925</v>
       </c>
       <c r="L24" t="n">
-        <v>317.8154857068967</v>
+        <v>317.8154857068966</v>
       </c>
       <c r="M24" t="n">
         <v>390.4280735251232</v>
       </c>
       <c r="N24" t="n">
-        <v>415.3157296599254</v>
+        <v>415.3157296599253</v>
       </c>
       <c r="O24" t="n">
-        <v>357.4885165506238</v>
+        <v>357.4885165506237</v>
       </c>
       <c r="P24" t="n">
         <v>267.3877015355339</v>
       </c>
       <c r="Q24" t="n">
-        <v>338.3954543654518</v>
+        <v>243.8416140184559</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>31.223028023391</v>
+        <v>31.22302802339098</v>
       </c>
       <c r="K25" t="n">
         <v>182.4573462903592</v>
@@ -36522,7 +36522,7 @@
         <v>289.5698930657171</v>
       </c>
       <c r="M25" t="n">
-        <v>315.8049152747015</v>
+        <v>315.8049152747014</v>
       </c>
       <c r="N25" t="n">
         <v>313.7852917853871</v>
@@ -36592,10 +36592,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>661.3366991265652</v>
+        <v>539.1576964255129</v>
       </c>
       <c r="L26" t="n">
         <v>873.2513289427826</v>
@@ -36607,7 +36607,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O26" t="n">
-        <v>597.5775642778385</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P26" t="n">
         <v>398.7619862193719</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554004</v>
+        <v>539.1576964255129</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923319</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M29" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
-        <v>989.6487598248955</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O29" t="n">
-        <v>888.8531821509644</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q29" t="n">
-        <v>251.8117805593776</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K31" t="n">
         <v>206.0476595443195</v>
@@ -37002,13 +37002,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O31" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P31" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q31" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37081,10 +37081,10 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>888.8531821509645</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P32" t="n">
-        <v>684.4630967757926</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q32" t="n">
         <v>463.1092954636242</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K34" t="n">
         <v>206.0476595443196</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>92.55355323165881</v>
+        <v>92.5535532316588</v>
       </c>
       <c r="K37" t="n">
         <v>253.0227961629121</v>
@@ -37543,28 +37543,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923322</v>
+        <v>485.2089366502542</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O38" t="n">
-        <v>852.7555845359029</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P38" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q38" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R38" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597767</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.5535532316588</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K40" t="n">
         <v>253.0227961629121</v>
@@ -37707,7 +37707,7 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M40" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N40" t="n">
         <v>391.8320827861326</v>
@@ -37716,7 +37716,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P40" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q40" t="n">
         <v>125.3693751564862</v>
@@ -37780,25 +37780,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L41" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M41" t="n">
-        <v>790.107897498625</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882191</v>
+        <v>852.7555845359043</v>
       </c>
       <c r="P41" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q41" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R41" t="n">
         <v>125.3296184152072</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340054</v>
+        <v>370.402182134006</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37944,7 +37944,7 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M43" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N43" t="n">
         <v>391.8320827861326</v>
@@ -37953,7 +37953,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P43" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q43" t="n">
         <v>125.3693751564862</v>
@@ -38020,7 +38020,7 @@
         <v>661.3366991265651</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923319</v>
+        <v>485.2089366502542</v>
       </c>
       <c r="M44" t="n">
         <v>538.9211158302265</v>
@@ -38029,7 +38029,7 @@
         <v>552.3018354129113</v>
       </c>
       <c r="O44" t="n">
-        <v>852.7555845359043</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P44" t="n">
         <v>720.5606943908542</v>
@@ -38038,7 +38038,7 @@
         <v>463.1092954636241</v>
       </c>
       <c r="R44" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597767</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
@@ -38172,13 +38172,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.55355323165874</v>
+        <v>92.55355323165877</v>
       </c>
       <c r="K46" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M46" t="n">
         <v>394.6085160120763</v>
